--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -114,7 +114,7 @@
     <t>pav:version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>pav:createdOn</t>
@@ -327,12 +327,24 @@
   <si>
     <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
   </si>
+  <si>
+    <t>microorganism</t>
+  </si>
+  <si>
+    <t>gen:10008</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="43">
+  <fonts count="40">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -424,13 +436,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -452,10 +457,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
@@ -467,16 +468,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -698,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -812,11 +812,8 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -825,160 +822,133 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1230,7 +1200,7 @@
     <col customWidth="1" min="22" max="31" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1231,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1265,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1299,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1333,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1367,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1401,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1436,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1469,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1502,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1535,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1568,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1631,7 +1601,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1634,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +1667,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1730,7 +1700,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1733,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1766,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="1"/>
       <c r="B18" s="18"/>
       <c r="C18" s="3"/>
@@ -1825,7 +1795,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
@@ -1854,7 +1824,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -1883,7 +1853,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
@@ -1912,7 +1882,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
@@ -1941,7 +1911,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
@@ -2247,7 +2217,7 @@
       <c r="E31" s="48"/>
       <c r="H31" s="50"/>
       <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="J31" s="50"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2274,18 +2244,18 @@
       <c r="B32" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>63</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>64</v>
       </c>
       <c r="I32" s="51"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2309,20 +2279,20 @@
       <c r="B33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="49"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="56"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -2343,19 +2313,19 @@
       <c r="B34" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57" t="s">
+      <c r="F34" s="54"/>
+      <c r="G34" s="55" t="s">
         <v>68</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="57" t="s">
         <v>68</v>
       </c>
       <c r="L34" s="3"/>
@@ -2385,23 +2355,23 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="57" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="55" t="s">
         <v>72</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63" t="s">
+      <c r="I35" s="59"/>
+      <c r="J35" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
       <c r="N35" s="3"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2425,32 +2395,32 @@
       <c r="B36" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="65" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57" t="s">
+      <c r="F36" s="54"/>
+      <c r="G36" s="55" t="s">
         <v>76</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="66"/>
+      <c r="I36" s="52"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
@@ -2467,15 +2437,15 @@
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="45"/>
-      <c r="G37" s="57"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="53"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
       <c r="N37" s="47"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -2496,10 +2466,10 @@
       <c r="B38" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="57"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="49" t="s">
         <v>69</v>
       </c>
@@ -2523,7 +2493,7 @@
       <c r="B39" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="57"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="49"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -2548,15 +2518,15 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="45"/>
-      <c r="G40" s="57"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="49"/>
-      <c r="I40" s="66"/>
+      <c r="I40" s="52"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
       <c r="N40" s="47"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -2570,31 +2540,31 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="69" t="str">
+      <c r="A41" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A16</f>
         <v>gen:10015</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -2606,33 +2576,33 @@
       <c r="AA41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="69" t="str">
+      <c r="A42" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A17</f>
         <v>gen:10016</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -2644,31 +2614,31 @@
       <c r="AA42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="69" t="str">
+      <c r="A43" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A18</f>
         <v>gen:10017</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -2680,31 +2650,31 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="69" t="str">
+      <c r="A44" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A19</f>
         <v>gen:10018</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
       <c r="H44" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -2716,31 +2686,31 @@
       <c r="AA44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="69" t="str">
+      <c r="A45" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A20</f>
         <v>gen:10019</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -2752,31 +2722,31 @@
       <c r="AA45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="69" t="str">
+      <c r="A46" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A21</f>
         <v>gen:10020</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -2788,25 +2758,25 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="69" t="str">
+      <c r="A47" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A22</f>
         <v>gen:10021</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="60" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="57" t="s">
+      <c r="F47" s="52"/>
+      <c r="G47" s="55" t="s">
         <v>92</v>
       </c>
       <c r="H47" s="49"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="59" t="s">
+      <c r="J47" s="57" t="s">
         <v>92</v>
       </c>
       <c r="K47" s="3"/>
@@ -2828,25 +2798,25 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="69" t="str">
+      <c r="A48" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A23</f>
         <v>gen:10022</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="60" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="57" t="s">
+      <c r="F48" s="52"/>
+      <c r="G48" s="55" t="s">
         <v>95</v>
       </c>
       <c r="H48" s="49"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="65" t="s">
         <v>95</v>
       </c>
       <c r="K48" s="3"/>
@@ -2868,24 +2838,24 @@
       <c r="AA48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="69" t="str">
+      <c r="A49" s="64" t="str">
         <f>$B$2&amp;":"&amp;Sheet2!A24</f>
         <v>gen:10023</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="60" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="57" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="J49" s="72" t="s">
+      <c r="H49" s="55"/>
+      <c r="J49" s="65" t="s">
         <v>98</v>
       </c>
       <c r="L49" s="3"/>
@@ -2906,12 +2876,19 @@
       <c r="AA49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="60"/>
-      <c r="H50" s="49"/>
+      <c r="A50" s="64" t="str">
+        <f>$B$2&amp;":"&amp;Sheet2!A25</f>
+        <v>gen:10024</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="H50" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2931,15 +2908,23 @@
       <c r="AA50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="49"/>
+      <c r="A51" s="64" t="str">
+        <f>$B$2&amp;":"&amp;Sheet2!A26</f>
+        <v>gen:10025</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="75"/>
+      <c r="J51" s="68"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2959,8 +2944,13 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="64" t="str">
+        <f>$B$2&amp;":"&amp;Sheet2!A27</f>
+        <v>gen:10026</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>102</v>
+      </c>
       <c r="E52" s="45"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3095,7 +3085,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="77"/>
+      <c r="B57" s="69"/>
       <c r="E57" s="45"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3199,7 +3189,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="32"/>
-      <c r="B61" s="77"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="45"/>
@@ -3228,7 +3218,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="32"/>
-      <c r="B62" s="77"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="45"/>
@@ -3581,7 +3571,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="77"/>
+      <c r="B75" s="69"/>
       <c r="E75" s="45"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3608,7 +3598,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="78"/>
+      <c r="B76" s="54"/>
       <c r="E76" s="45"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3662,7 +3652,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="78"/>
+      <c r="B78" s="54"/>
       <c r="E78" s="45"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3689,7 +3679,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="32"/>
-      <c r="B79" s="79"/>
+      <c r="B79" s="70"/>
       <c r="E79" s="45"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3716,7 +3706,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="32"/>
-      <c r="B80" s="78"/>
+      <c r="B80" s="54"/>
       <c r="E80" s="45"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3743,7 +3733,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="32"/>
-      <c r="B81" s="78"/>
+      <c r="B81" s="54"/>
       <c r="E81" s="45"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -3770,7 +3760,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="32"/>
-      <c r="B82" s="78"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="45"/>
@@ -3826,7 +3816,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="32"/>
-      <c r="B84" s="79"/>
+      <c r="B84" s="70"/>
       <c r="E84" s="45"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3853,7 +3843,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="32"/>
-      <c r="B85" s="55"/>
+      <c r="B85" s="51"/>
       <c r="E85" s="45"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3880,7 +3870,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="32"/>
-      <c r="B86" s="55"/>
+      <c r="B86" s="51"/>
       <c r="E86" s="45"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3907,7 +3897,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="32"/>
-      <c r="B87" s="55"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="45"/>
@@ -3936,7 +3926,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="32"/>
-      <c r="B88" s="78"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="45"/>
@@ -3965,7 +3955,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="32"/>
-      <c r="B89" s="78"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="45"/>
@@ -3994,7 +3984,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="32"/>
-      <c r="B90" s="80"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="45"/>
@@ -4023,7 +4013,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32"/>
-      <c r="B91" s="77"/>
+      <c r="B91" s="69"/>
       <c r="E91" s="45"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -4050,7 +4040,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="32"/>
-      <c r="B92" s="55"/>
+      <c r="B92" s="51"/>
       <c r="E92" s="45"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4077,7 +4067,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="32"/>
-      <c r="B93" s="55"/>
+      <c r="B93" s="51"/>
       <c r="E93" s="45"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -4104,7 +4094,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="32"/>
-      <c r="B94" s="55"/>
+      <c r="B94" s="51"/>
       <c r="E94" s="45"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4131,7 +4121,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="32"/>
-      <c r="B95" s="55"/>
+      <c r="B95" s="51"/>
       <c r="E95" s="45"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4158,7 +4148,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="32"/>
-      <c r="B96" s="55"/>
+      <c r="B96" s="51"/>
       <c r="E96" s="45"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4185,7 +4175,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="32"/>
-      <c r="B97" s="55"/>
+      <c r="B97" s="51"/>
       <c r="E97" s="45"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4212,7 +4202,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="32"/>
-      <c r="B98" s="55"/>
+      <c r="B98" s="51"/>
       <c r="E98" s="45"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -4239,7 +4229,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="32"/>
-      <c r="B99" s="81"/>
+      <c r="B99" s="59"/>
       <c r="E99" s="45"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4266,7 +4256,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="32"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="51"/>
       <c r="E100" s="45"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4293,7 +4283,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="32"/>
-      <c r="B101" s="77"/>
+      <c r="B101" s="69"/>
       <c r="E101" s="45"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4320,7 +4310,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="32"/>
-      <c r="B102" s="55"/>
+      <c r="B102" s="51"/>
       <c r="E102" s="45"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4347,7 +4337,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="32"/>
-      <c r="B103" s="55"/>
+      <c r="B103" s="51"/>
       <c r="E103" s="45"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4374,7 +4364,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="32"/>
-      <c r="B104" s="55"/>
+      <c r="B104" s="51"/>
       <c r="E104" s="45"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4401,7 +4391,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="32"/>
-      <c r="B105" s="55"/>
+      <c r="B105" s="51"/>
       <c r="E105" s="45"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4428,7 +4418,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="32"/>
-      <c r="B106" s="55"/>
+      <c r="B106" s="51"/>
       <c r="E106" s="45"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4455,7 +4445,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="32"/>
-      <c r="B107" s="77"/>
+      <c r="B107" s="69"/>
       <c r="E107" s="45"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4482,7 +4472,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="32"/>
-      <c r="B108" s="55"/>
+      <c r="B108" s="51"/>
       <c r="E108" s="45"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4509,7 +4499,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="32"/>
-      <c r="B109" s="55"/>
+      <c r="B109" s="51"/>
       <c r="E109" s="45"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4536,7 +4526,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="32"/>
-      <c r="B110" s="55"/>
+      <c r="B110" s="51"/>
       <c r="E110" s="45"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4563,7 +4553,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="32"/>
-      <c r="B111" s="55"/>
+      <c r="B111" s="51"/>
       <c r="E111" s="45"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4590,7 +4580,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="32"/>
-      <c r="B112" s="55"/>
+      <c r="B112" s="51"/>
       <c r="E112" s="45"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -4617,7 +4607,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="32"/>
-      <c r="B113" s="55"/>
+      <c r="B113" s="51"/>
       <c r="E113" s="45"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4644,7 +4634,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="32"/>
-      <c r="B114" s="55"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="45"/>
@@ -4673,7 +4663,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="32"/>
-      <c r="B115" s="77"/>
+      <c r="B115" s="69"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="45"/>
@@ -4702,7 +4692,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="32"/>
-      <c r="B116" s="55"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="45"/>
@@ -4731,7 +4721,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="32"/>
-      <c r="B117" s="55"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="45"/>
@@ -4760,7 +4750,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="32"/>
-      <c r="B118" s="55"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="45"/>
@@ -4789,7 +4779,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="32"/>
-      <c r="B119" s="55"/>
+      <c r="B119" s="51"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="45"/>
@@ -4818,16 +4808,16 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="32"/>
-      <c r="B120" s="55"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="45"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
       <c r="H120" s="49"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -4847,9 +4837,9 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="32"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="45"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4876,7 +4866,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="32"/>
-      <c r="B122" s="83"/>
+      <c r="B122" s="73"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="45"/>
@@ -4905,7 +4895,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="32"/>
-      <c r="B123" s="84"/>
+      <c r="B123" s="74"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="45"/>
@@ -4934,7 +4924,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="32"/>
-      <c r="B124" s="81"/>
+      <c r="B124" s="59"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="45"/>
@@ -4963,7 +4953,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="32"/>
-      <c r="B125" s="81"/>
+      <c r="B125" s="59"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="45"/>
@@ -4992,7 +4982,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="32"/>
-      <c r="B126" s="81"/>
+      <c r="B126" s="59"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="45"/>
@@ -5021,7 +5011,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="32"/>
-      <c r="B127" s="81"/>
+      <c r="B127" s="59"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="45"/>
@@ -5050,7 +5040,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="32"/>
-      <c r="B128" s="78"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="45"/>
@@ -5079,7 +5069,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="32"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="45"/>
@@ -5108,7 +5098,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="32"/>
-      <c r="B130" s="78"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="45"/>
@@ -5137,7 +5127,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="32"/>
-      <c r="B131" s="85"/>
+      <c r="B131" s="75"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="45"/>
@@ -5166,15 +5156,15 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="32"/>
-      <c r="B132" s="85"/>
-      <c r="C132" s="86"/>
-      <c r="D132" s="86"/>
+      <c r="B132" s="75"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
       <c r="E132" s="45"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="86"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
       <c r="H132" s="49"/>
-      <c r="I132" s="86"/>
-      <c r="J132" s="86"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -5195,15 +5185,15 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="32"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="87"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
       <c r="E133" s="45"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="78"/>
       <c r="H133" s="49"/>
-      <c r="I133" s="86"/>
-      <c r="J133" s="88"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="78"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -5224,15 +5214,15 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="32"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="82"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
       <c r="E134" s="45"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
       <c r="H134" s="49"/>
-      <c r="I134" s="86"/>
-      <c r="J134" s="88"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="78"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -5253,15 +5243,15 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="32"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="87"/>
-      <c r="D135" s="87"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
       <c r="E135" s="45"/>
-      <c r="F135" s="88"/>
-      <c r="G135" s="88"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
       <c r="H135" s="49"/>
-      <c r="I135" s="86"/>
-      <c r="J135" s="88"/>
+      <c r="I135" s="76"/>
+      <c r="J135" s="78"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -5282,15 +5272,15 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="32"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="86"/>
-      <c r="D136" s="86"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
       <c r="E136" s="45"/>
-      <c r="F136" s="88"/>
-      <c r="G136" s="88"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
       <c r="H136" s="49"/>
-      <c r="I136" s="86"/>
-      <c r="J136" s="88"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="78"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -5311,15 +5301,15 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="32"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="86"/>
-      <c r="D137" s="86"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
       <c r="E137" s="45"/>
-      <c r="F137" s="88"/>
-      <c r="G137" s="88"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
       <c r="H137" s="49"/>
-      <c r="I137" s="86"/>
-      <c r="J137" s="88"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="78"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -5340,15 +5330,15 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="32"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="86"/>
-      <c r="D138" s="86"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
       <c r="E138" s="45"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="89"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
       <c r="H138" s="49"/>
-      <c r="I138" s="86"/>
-      <c r="J138" s="89"/>
+      <c r="I138" s="76"/>
+      <c r="J138" s="79"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -5369,15 +5359,15 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="32"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="81"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
       <c r="E139" s="45"/>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
       <c r="H139" s="49"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="88"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="78"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -5398,15 +5388,15 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="32"/>
-      <c r="B140" s="81"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
       <c r="E140" s="45"/>
-      <c r="F140" s="88"/>
-      <c r="G140" s="88"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
       <c r="H140" s="49"/>
-      <c r="I140" s="86"/>
-      <c r="J140" s="88"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="78"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -5427,15 +5417,15 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="32"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
       <c r="E141" s="45"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
       <c r="H141" s="49"/>
-      <c r="I141" s="86"/>
-      <c r="J141" s="88"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="78"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -5456,21 +5446,21 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="32"/>
-      <c r="B142" s="79"/>
-      <c r="C142" s="87"/>
-      <c r="D142" s="87"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
       <c r="E142" s="45"/>
-      <c r="F142" s="91"/>
-      <c r="G142" s="91"/>
+      <c r="F142" s="81"/>
+      <c r="G142" s="81"/>
       <c r="H142" s="49"/>
-      <c r="I142" s="87"/>
-      <c r="J142" s="91"/>
-      <c r="K142" s="87"/>
-      <c r="L142" s="87"/>
-      <c r="M142" s="87"/>
-      <c r="N142" s="87"/>
-      <c r="O142" s="87"/>
-      <c r="P142" s="87"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="77"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
@@ -5485,2106 +5475,2106 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="32"/>
-      <c r="B143" s="92"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="54"/>
       <c r="E143" s="45"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="54"/>
       <c r="H143" s="49"/>
-      <c r="I143" s="55"/>
-      <c r="J143" s="78"/>
-      <c r="L143" s="55"/>
-      <c r="M143" s="55"/>
-      <c r="N143" s="55"/>
-      <c r="O143" s="55"/>
-      <c r="P143" s="55"/>
-      <c r="Q143" s="55"/>
-      <c r="R143" s="55"/>
-      <c r="S143" s="55"/>
-      <c r="T143" s="55"/>
-      <c r="U143" s="55"/>
-      <c r="V143" s="55"/>
-      <c r="W143" s="55"/>
-      <c r="X143" s="55"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="54"/>
+      <c r="L143" s="51"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="51"/>
+      <c r="O143" s="51"/>
+      <c r="P143" s="51"/>
+      <c r="Q143" s="51"/>
+      <c r="R143" s="51"/>
+      <c r="S143" s="51"/>
+      <c r="T143" s="51"/>
+      <c r="U143" s="51"/>
+      <c r="V143" s="51"/>
+      <c r="W143" s="51"/>
+      <c r="X143" s="51"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="32"/>
-      <c r="B144" s="78"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
       <c r="E144" s="45"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="54"/>
       <c r="H144" s="49"/>
-      <c r="I144" s="55"/>
-      <c r="J144" s="78"/>
-      <c r="L144" s="55"/>
-      <c r="M144" s="55"/>
-      <c r="N144" s="55"/>
-      <c r="O144" s="55"/>
-      <c r="P144" s="55"/>
-      <c r="Q144" s="55"/>
-      <c r="R144" s="55"/>
-      <c r="S144" s="55"/>
-      <c r="T144" s="55"/>
-      <c r="U144" s="55"/>
-      <c r="V144" s="55"/>
-      <c r="W144" s="55"/>
-      <c r="X144" s="55"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="54"/>
+      <c r="L144" s="51"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="51"/>
+      <c r="O144" s="51"/>
+      <c r="P144" s="51"/>
+      <c r="Q144" s="51"/>
+      <c r="R144" s="51"/>
+      <c r="S144" s="51"/>
+      <c r="T144" s="51"/>
+      <c r="U144" s="51"/>
+      <c r="V144" s="51"/>
+      <c r="W144" s="51"/>
+      <c r="X144" s="51"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="32"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="51"/>
       <c r="E145" s="45"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="54"/>
       <c r="H145" s="49"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="78"/>
-      <c r="L145" s="55"/>
-      <c r="M145" s="55"/>
-      <c r="N145" s="55"/>
-      <c r="O145" s="55"/>
-      <c r="P145" s="55"/>
-      <c r="Q145" s="55"/>
-      <c r="R145" s="55"/>
-      <c r="S145" s="55"/>
-      <c r="T145" s="55"/>
-      <c r="U145" s="55"/>
-      <c r="V145" s="55"/>
-      <c r="W145" s="55"/>
-      <c r="X145" s="55"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="54"/>
+      <c r="L145" s="51"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="51"/>
+      <c r="O145" s="51"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="51"/>
+      <c r="R145" s="51"/>
+      <c r="S145" s="51"/>
+      <c r="T145" s="51"/>
+      <c r="U145" s="51"/>
+      <c r="V145" s="51"/>
+      <c r="W145" s="51"/>
+      <c r="X145" s="51"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="32"/>
-      <c r="B146" s="92"/>
-      <c r="C146" s="55"/>
-      <c r="D146" s="55"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
       <c r="E146" s="45"/>
-      <c r="F146" s="93"/>
-      <c r="G146" s="93"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="83"/>
       <c r="H146" s="49"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="93"/>
-      <c r="L146" s="55"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="55"/>
-      <c r="O146" s="55"/>
-      <c r="P146" s="55"/>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="55"/>
-      <c r="S146" s="55"/>
-      <c r="T146" s="55"/>
-      <c r="U146" s="55"/>
-      <c r="V146" s="55"/>
-      <c r="W146" s="55"/>
-      <c r="X146" s="55"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="83"/>
+      <c r="L146" s="51"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="51"/>
+      <c r="O146" s="51"/>
+      <c r="P146" s="51"/>
+      <c r="Q146" s="51"/>
+      <c r="R146" s="51"/>
+      <c r="S146" s="51"/>
+      <c r="T146" s="51"/>
+      <c r="U146" s="51"/>
+      <c r="V146" s="51"/>
+      <c r="W146" s="51"/>
+      <c r="X146" s="51"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="32"/>
-      <c r="B147" s="78"/>
-      <c r="C147" s="55"/>
-      <c r="D147" s="55"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
       <c r="E147" s="45"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
       <c r="H147" s="49"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="78"/>
-      <c r="L147" s="55"/>
-      <c r="M147" s="55"/>
-      <c r="N147" s="55"/>
-      <c r="O147" s="55"/>
-      <c r="P147" s="55"/>
-      <c r="Q147" s="55"/>
-      <c r="R147" s="55"/>
-      <c r="S147" s="55"/>
-      <c r="T147" s="55"/>
-      <c r="U147" s="55"/>
-      <c r="V147" s="55"/>
-      <c r="W147" s="55"/>
-      <c r="X147" s="55"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="54"/>
+      <c r="L147" s="51"/>
+      <c r="M147" s="51"/>
+      <c r="N147" s="51"/>
+      <c r="O147" s="51"/>
+      <c r="P147" s="51"/>
+      <c r="Q147" s="51"/>
+      <c r="R147" s="51"/>
+      <c r="S147" s="51"/>
+      <c r="T147" s="51"/>
+      <c r="U147" s="51"/>
+      <c r="V147" s="51"/>
+      <c r="W147" s="51"/>
+      <c r="X147" s="51"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="32"/>
-      <c r="B148" s="79"/>
-      <c r="C148" s="55"/>
-      <c r="D148" s="55"/>
+      <c r="B148" s="70"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
       <c r="E148" s="45"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
       <c r="H148" s="49"/>
-      <c r="I148" s="55"/>
-      <c r="J148" s="55"/>
-      <c r="K148" s="55"/>
-      <c r="L148" s="55"/>
-      <c r="M148" s="55"/>
-      <c r="N148" s="55"/>
-      <c r="O148" s="55"/>
-      <c r="P148" s="55"/>
-      <c r="Q148" s="55"/>
-      <c r="R148" s="55"/>
-      <c r="S148" s="55"/>
-      <c r="T148" s="55"/>
-      <c r="U148" s="55"/>
-      <c r="V148" s="55"/>
-      <c r="W148" s="55"/>
-      <c r="X148" s="55"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
+      <c r="L148" s="51"/>
+      <c r="M148" s="51"/>
+      <c r="N148" s="51"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="51"/>
+      <c r="R148" s="51"/>
+      <c r="S148" s="51"/>
+      <c r="T148" s="51"/>
+      <c r="U148" s="51"/>
+      <c r="V148" s="51"/>
+      <c r="W148" s="51"/>
+      <c r="X148" s="51"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="32"/>
-      <c r="B149" s="94"/>
-      <c r="C149" s="55"/>
-      <c r="D149" s="55"/>
+      <c r="B149" s="84"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
       <c r="E149" s="45"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="78"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
       <c r="H149" s="49"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="55"/>
-      <c r="L149" s="55"/>
-      <c r="M149" s="55"/>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55"/>
-      <c r="P149" s="55"/>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="55"/>
-      <c r="S149" s="55"/>
-      <c r="T149" s="55"/>
-      <c r="U149" s="55"/>
-      <c r="V149" s="55"/>
-      <c r="W149" s="55"/>
-      <c r="X149" s="55"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
+      <c r="L149" s="51"/>
+      <c r="M149" s="51"/>
+      <c r="N149" s="51"/>
+      <c r="O149" s="51"/>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="51"/>
+      <c r="R149" s="51"/>
+      <c r="S149" s="51"/>
+      <c r="T149" s="51"/>
+      <c r="U149" s="51"/>
+      <c r="V149" s="51"/>
+      <c r="W149" s="51"/>
+      <c r="X149" s="51"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="32"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
       <c r="E150" s="45"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="54"/>
       <c r="H150" s="49"/>
-      <c r="I150" s="95"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="55"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="55"/>
-      <c r="O150" s="55"/>
-      <c r="P150" s="55"/>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="55"/>
-      <c r="S150" s="55"/>
-      <c r="T150" s="55"/>
-      <c r="U150" s="55"/>
-      <c r="V150" s="55"/>
-      <c r="W150" s="55"/>
-      <c r="X150" s="55"/>
+      <c r="I150" s="85"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="51"/>
+      <c r="M150" s="51"/>
+      <c r="N150" s="51"/>
+      <c r="O150" s="51"/>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="51"/>
+      <c r="R150" s="51"/>
+      <c r="S150" s="51"/>
+      <c r="T150" s="51"/>
+      <c r="U150" s="51"/>
+      <c r="V150" s="51"/>
+      <c r="W150" s="51"/>
+      <c r="X150" s="51"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="32"/>
-      <c r="B151" s="79"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="55"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
       <c r="E151" s="45"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="54"/>
       <c r="H151" s="49"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="96"/>
-      <c r="K151" s="55"/>
-      <c r="L151" s="55"/>
-      <c r="M151" s="55"/>
-      <c r="N151" s="55"/>
-      <c r="O151" s="55"/>
-      <c r="P151" s="55"/>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="55"/>
-      <c r="S151" s="55"/>
-      <c r="T151" s="55"/>
-      <c r="U151" s="55"/>
-      <c r="V151" s="55"/>
-      <c r="W151" s="55"/>
-      <c r="X151" s="55"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="86"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="51"/>
+      <c r="M151" s="51"/>
+      <c r="N151" s="51"/>
+      <c r="O151" s="51"/>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="51"/>
+      <c r="R151" s="51"/>
+      <c r="S151" s="51"/>
+      <c r="T151" s="51"/>
+      <c r="U151" s="51"/>
+      <c r="V151" s="51"/>
+      <c r="W151" s="51"/>
+      <c r="X151" s="51"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="32"/>
-      <c r="B152" s="94"/>
-      <c r="C152" s="55"/>
-      <c r="D152" s="55"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
       <c r="E152" s="45"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="54"/>
       <c r="H152" s="49"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="55"/>
-      <c r="K152" s="55"/>
-      <c r="L152" s="55"/>
-      <c r="M152" s="55"/>
-      <c r="N152" s="55"/>
-      <c r="O152" s="55"/>
-      <c r="P152" s="55"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="55"/>
-      <c r="S152" s="55"/>
-      <c r="T152" s="55"/>
-      <c r="U152" s="55"/>
-      <c r="V152" s="55"/>
-      <c r="W152" s="55"/>
-      <c r="X152" s="55"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="51"/>
+      <c r="S152" s="51"/>
+      <c r="T152" s="51"/>
+      <c r="U152" s="51"/>
+      <c r="V152" s="51"/>
+      <c r="W152" s="51"/>
+      <c r="X152" s="51"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="32"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="55"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
       <c r="E153" s="45"/>
-      <c r="F153" s="97"/>
-      <c r="G153" s="97"/>
+      <c r="F153" s="87"/>
+      <c r="G153" s="87"/>
       <c r="H153" s="49"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="78"/>
-      <c r="L153" s="55"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="55"/>
-      <c r="O153" s="55"/>
-      <c r="P153" s="55"/>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="55"/>
-      <c r="S153" s="55"/>
-      <c r="T153" s="55"/>
-      <c r="U153" s="55"/>
-      <c r="V153" s="55"/>
-      <c r="W153" s="55"/>
-      <c r="X153" s="55"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="54"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="51"/>
+      <c r="S153" s="51"/>
+      <c r="T153" s="51"/>
+      <c r="U153" s="51"/>
+      <c r="V153" s="51"/>
+      <c r="W153" s="51"/>
+      <c r="X153" s="51"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="32"/>
-      <c r="B154" s="78"/>
-      <c r="C154" s="55"/>
-      <c r="D154" s="55"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="45"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="54"/>
       <c r="H154" s="49"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="78"/>
-      <c r="L154" s="55"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="55"/>
-      <c r="O154" s="55"/>
-      <c r="P154" s="55"/>
-      <c r="Q154" s="55"/>
-      <c r="R154" s="55"/>
-      <c r="S154" s="55"/>
-      <c r="T154" s="55"/>
-      <c r="U154" s="55"/>
-      <c r="V154" s="55"/>
-      <c r="W154" s="55"/>
-      <c r="X154" s="55"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="54"/>
+      <c r="L154" s="51"/>
+      <c r="M154" s="51"/>
+      <c r="N154" s="51"/>
+      <c r="O154" s="51"/>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="51"/>
+      <c r="R154" s="51"/>
+      <c r="S154" s="51"/>
+      <c r="T154" s="51"/>
+      <c r="U154" s="51"/>
+      <c r="V154" s="51"/>
+      <c r="W154" s="51"/>
+      <c r="X154" s="51"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
       <c r="AA154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="32"/>
-      <c r="B155" s="78"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="51"/>
       <c r="E155" s="45"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="78"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="54"/>
       <c r="H155" s="49"/>
-      <c r="I155" s="55"/>
-      <c r="J155" s="55"/>
-      <c r="K155" s="96"/>
-      <c r="L155" s="55"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
-      <c r="O155" s="55"/>
-      <c r="P155" s="55"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="55"/>
-      <c r="S155" s="55"/>
-      <c r="T155" s="55"/>
-      <c r="U155" s="55"/>
-      <c r="V155" s="55"/>
-      <c r="W155" s="55"/>
-      <c r="X155" s="55"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="86"/>
+      <c r="L155" s="51"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
+      <c r="O155" s="51"/>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="51"/>
+      <c r="R155" s="51"/>
+      <c r="S155" s="51"/>
+      <c r="T155" s="51"/>
+      <c r="U155" s="51"/>
+      <c r="V155" s="51"/>
+      <c r="W155" s="51"/>
+      <c r="X155" s="51"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="32"/>
-      <c r="B156" s="79"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="55"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="51"/>
+      <c r="D156" s="51"/>
       <c r="E156" s="45"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
       <c r="H156" s="49"/>
-      <c r="I156" s="55"/>
-      <c r="J156" s="55"/>
-      <c r="L156" s="55"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="55"/>
-      <c r="O156" s="55"/>
-      <c r="P156" s="55"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="55"/>
-      <c r="S156" s="55"/>
-      <c r="T156" s="55"/>
-      <c r="U156" s="55"/>
-      <c r="V156" s="55"/>
-      <c r="W156" s="55"/>
-      <c r="X156" s="55"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="51"/>
+      <c r="U156" s="51"/>
+      <c r="V156" s="51"/>
+      <c r="W156" s="51"/>
+      <c r="X156" s="51"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
       <c r="AA156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="32"/>
-      <c r="B157" s="78"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="55"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="51"/>
+      <c r="D157" s="51"/>
       <c r="E157" s="45"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
       <c r="H157" s="49"/>
-      <c r="I157" s="55"/>
-      <c r="J157" s="78"/>
-      <c r="L157" s="55"/>
-      <c r="M157" s="55"/>
-      <c r="N157" s="55"/>
-      <c r="O157" s="55"/>
-      <c r="P157" s="55"/>
-      <c r="Q157" s="55"/>
-      <c r="R157" s="55"/>
-      <c r="S157" s="55"/>
-      <c r="T157" s="55"/>
-      <c r="U157" s="55"/>
-      <c r="V157" s="55"/>
-      <c r="W157" s="55"/>
-      <c r="X157" s="55"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="54"/>
+      <c r="L157" s="51"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="51"/>
+      <c r="O157" s="51"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
+      <c r="S157" s="51"/>
+      <c r="T157" s="51"/>
+      <c r="U157" s="51"/>
+      <c r="V157" s="51"/>
+      <c r="W157" s="51"/>
+      <c r="X157" s="51"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="32"/>
-      <c r="B158" s="78"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="55"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="51"/>
+      <c r="D158" s="51"/>
       <c r="E158" s="45"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="54"/>
       <c r="H158" s="49"/>
-      <c r="I158" s="55"/>
-      <c r="J158" s="78"/>
-      <c r="L158" s="55"/>
-      <c r="M158" s="55"/>
-      <c r="N158" s="55"/>
-      <c r="O158" s="55"/>
-      <c r="P158" s="55"/>
-      <c r="Q158" s="55"/>
-      <c r="R158" s="55"/>
-      <c r="S158" s="55"/>
-      <c r="T158" s="55"/>
-      <c r="U158" s="55"/>
-      <c r="V158" s="55"/>
-      <c r="W158" s="55"/>
-      <c r="X158" s="55"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="54"/>
+      <c r="L158" s="51"/>
+      <c r="M158" s="51"/>
+      <c r="N158" s="51"/>
+      <c r="O158" s="51"/>
+      <c r="P158" s="51"/>
+      <c r="Q158" s="51"/>
+      <c r="R158" s="51"/>
+      <c r="S158" s="51"/>
+      <c r="T158" s="51"/>
+      <c r="U158" s="51"/>
+      <c r="V158" s="51"/>
+      <c r="W158" s="51"/>
+      <c r="X158" s="51"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="32"/>
-      <c r="B159" s="79"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="55"/>
+      <c r="B159" s="70"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="51"/>
       <c r="E159" s="45"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="54"/>
       <c r="H159" s="49"/>
-      <c r="I159" s="55"/>
-      <c r="J159" s="55"/>
-      <c r="K159" s="55"/>
-      <c r="L159" s="55"/>
-      <c r="M159" s="55"/>
-      <c r="N159" s="55"/>
-      <c r="O159" s="55"/>
-      <c r="P159" s="55"/>
-      <c r="Q159" s="55"/>
-      <c r="R159" s="55"/>
-      <c r="S159" s="55"/>
-      <c r="T159" s="55"/>
-      <c r="U159" s="55"/>
-      <c r="V159" s="55"/>
-      <c r="W159" s="55"/>
-      <c r="X159" s="55"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
+      <c r="K159" s="51"/>
+      <c r="L159" s="51"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="51"/>
+      <c r="O159" s="51"/>
+      <c r="P159" s="51"/>
+      <c r="Q159" s="51"/>
+      <c r="R159" s="51"/>
+      <c r="S159" s="51"/>
+      <c r="T159" s="51"/>
+      <c r="U159" s="51"/>
+      <c r="V159" s="51"/>
+      <c r="W159" s="51"/>
+      <c r="X159" s="51"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="32"/>
-      <c r="B160" s="78"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="55"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="51"/>
       <c r="E160" s="45"/>
-      <c r="F160" s="78"/>
-      <c r="G160" s="78"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="54"/>
       <c r="H160" s="49"/>
-      <c r="I160" s="55"/>
-      <c r="J160" s="55"/>
-      <c r="K160" s="55"/>
-      <c r="L160" s="55"/>
-      <c r="M160" s="55"/>
-      <c r="N160" s="55"/>
-      <c r="O160" s="55"/>
-      <c r="P160" s="55"/>
-      <c r="Q160" s="55"/>
-      <c r="R160" s="55"/>
-      <c r="S160" s="55"/>
-      <c r="T160" s="55"/>
-      <c r="U160" s="55"/>
-      <c r="V160" s="55"/>
-      <c r="W160" s="55"/>
-      <c r="X160" s="55"/>
+      <c r="I160" s="51"/>
+      <c r="J160" s="51"/>
+      <c r="K160" s="51"/>
+      <c r="L160" s="51"/>
+      <c r="M160" s="51"/>
+      <c r="N160" s="51"/>
+      <c r="O160" s="51"/>
+      <c r="P160" s="51"/>
+      <c r="Q160" s="51"/>
+      <c r="R160" s="51"/>
+      <c r="S160" s="51"/>
+      <c r="T160" s="51"/>
+      <c r="U160" s="51"/>
+      <c r="V160" s="51"/>
+      <c r="W160" s="51"/>
+      <c r="X160" s="51"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="32"/>
-      <c r="B161" s="78"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="55"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
       <c r="E161" s="45"/>
-      <c r="F161" s="78"/>
-      <c r="G161" s="78"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="54"/>
       <c r="H161" s="49"/>
-      <c r="I161" s="55"/>
-      <c r="J161" s="55"/>
-      <c r="K161" s="78"/>
-      <c r="L161" s="55"/>
-      <c r="M161" s="55"/>
-      <c r="N161" s="55"/>
-      <c r="O161" s="55"/>
-      <c r="P161" s="55"/>
-      <c r="Q161" s="55"/>
-      <c r="R161" s="55"/>
-      <c r="S161" s="55"/>
-      <c r="T161" s="55"/>
-      <c r="U161" s="55"/>
-      <c r="V161" s="55"/>
-      <c r="W161" s="55"/>
-      <c r="X161" s="55"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="54"/>
+      <c r="L161" s="51"/>
+      <c r="M161" s="51"/>
+      <c r="N161" s="51"/>
+      <c r="O161" s="51"/>
+      <c r="P161" s="51"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
+      <c r="S161" s="51"/>
+      <c r="T161" s="51"/>
+      <c r="U161" s="51"/>
+      <c r="V161" s="51"/>
+      <c r="W161" s="51"/>
+      <c r="X161" s="51"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="32"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="55"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
       <c r="E162" s="45"/>
-      <c r="F162" s="78"/>
-      <c r="G162" s="78"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="54"/>
       <c r="H162" s="49"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="55"/>
-      <c r="K162" s="78"/>
-      <c r="L162" s="55"/>
-      <c r="M162" s="55"/>
-      <c r="N162" s="55"/>
-      <c r="O162" s="55"/>
-      <c r="P162" s="55"/>
-      <c r="Q162" s="55"/>
-      <c r="R162" s="55"/>
-      <c r="S162" s="55"/>
-      <c r="T162" s="55"/>
-      <c r="U162" s="55"/>
-      <c r="V162" s="55"/>
-      <c r="W162" s="55"/>
-      <c r="X162" s="55"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="51"/>
+      <c r="M162" s="51"/>
+      <c r="N162" s="51"/>
+      <c r="O162" s="51"/>
+      <c r="P162" s="51"/>
+      <c r="Q162" s="51"/>
+      <c r="R162" s="51"/>
+      <c r="S162" s="51"/>
+      <c r="T162" s="51"/>
+      <c r="U162" s="51"/>
+      <c r="V162" s="51"/>
+      <c r="W162" s="51"/>
+      <c r="X162" s="51"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="32"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="55"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="51"/>
       <c r="E163" s="45"/>
-      <c r="F163" s="78"/>
-      <c r="G163" s="78"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="54"/>
       <c r="H163" s="49"/>
-      <c r="I163" s="55"/>
-      <c r="J163" s="55"/>
-      <c r="K163" s="78"/>
-      <c r="L163" s="55"/>
-      <c r="M163" s="55"/>
-      <c r="N163" s="55"/>
-      <c r="O163" s="55"/>
-      <c r="P163" s="55"/>
-      <c r="Q163" s="55"/>
-      <c r="R163" s="55"/>
-      <c r="S163" s="55"/>
-      <c r="T163" s="55"/>
-      <c r="U163" s="55"/>
-      <c r="V163" s="55"/>
-      <c r="W163" s="55"/>
-      <c r="X163" s="55"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="51"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="51"/>
+      <c r="M163" s="51"/>
+      <c r="N163" s="51"/>
+      <c r="O163" s="51"/>
+      <c r="P163" s="51"/>
+      <c r="Q163" s="51"/>
+      <c r="R163" s="51"/>
+      <c r="S163" s="51"/>
+      <c r="T163" s="51"/>
+      <c r="U163" s="51"/>
+      <c r="V163" s="51"/>
+      <c r="W163" s="51"/>
+      <c r="X163" s="51"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="32"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="55"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
       <c r="E164" s="45"/>
-      <c r="F164" s="78"/>
-      <c r="G164" s="78"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="54"/>
       <c r="H164" s="49"/>
-      <c r="I164" s="55"/>
-      <c r="J164" s="55"/>
-      <c r="K164" s="78"/>
-      <c r="L164" s="55"/>
-      <c r="M164" s="55"/>
-      <c r="N164" s="55"/>
-      <c r="O164" s="55"/>
-      <c r="P164" s="55"/>
-      <c r="Q164" s="55"/>
-      <c r="R164" s="55"/>
-      <c r="S164" s="55"/>
-      <c r="T164" s="55"/>
-      <c r="U164" s="55"/>
-      <c r="V164" s="55"/>
-      <c r="W164" s="55"/>
-      <c r="X164" s="55"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="54"/>
+      <c r="L164" s="51"/>
+      <c r="M164" s="51"/>
+      <c r="N164" s="51"/>
+      <c r="O164" s="51"/>
+      <c r="P164" s="51"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="51"/>
+      <c r="S164" s="51"/>
+      <c r="T164" s="51"/>
+      <c r="U164" s="51"/>
+      <c r="V164" s="51"/>
+      <c r="W164" s="51"/>
+      <c r="X164" s="51"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="32"/>
-      <c r="B165" s="79"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="55"/>
+      <c r="B165" s="70"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="51"/>
       <c r="E165" s="45"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="78"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
       <c r="H165" s="49"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="55"/>
-      <c r="K165" s="55"/>
-      <c r="L165" s="55"/>
-      <c r="M165" s="55"/>
-      <c r="N165" s="55"/>
-      <c r="O165" s="55"/>
-      <c r="P165" s="55"/>
-      <c r="Q165" s="55"/>
-      <c r="R165" s="55"/>
-      <c r="S165" s="55"/>
-      <c r="T165" s="55"/>
-      <c r="U165" s="55"/>
-      <c r="V165" s="55"/>
-      <c r="W165" s="55"/>
-      <c r="X165" s="55"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51"/>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
+      <c r="S165" s="51"/>
+      <c r="T165" s="51"/>
+      <c r="U165" s="51"/>
+      <c r="V165" s="51"/>
+      <c r="W165" s="51"/>
+      <c r="X165" s="51"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="32"/>
-      <c r="B166" s="78"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="55"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="51"/>
       <c r="E166" s="45"/>
-      <c r="F166" s="78"/>
-      <c r="G166" s="78"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="54"/>
       <c r="H166" s="49"/>
-      <c r="I166" s="55"/>
-      <c r="J166" s="78"/>
-      <c r="K166" s="55"/>
-      <c r="L166" s="55"/>
-      <c r="M166" s="55"/>
-      <c r="N166" s="55"/>
-      <c r="O166" s="55"/>
-      <c r="P166" s="55"/>
-      <c r="Q166" s="55"/>
-      <c r="R166" s="55"/>
-      <c r="S166" s="55"/>
-      <c r="T166" s="55"/>
-      <c r="U166" s="55"/>
-      <c r="V166" s="55"/>
-      <c r="W166" s="55"/>
-      <c r="X166" s="55"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="51"/>
+      <c r="O166" s="51"/>
+      <c r="P166" s="51"/>
+      <c r="Q166" s="51"/>
+      <c r="R166" s="51"/>
+      <c r="S166" s="51"/>
+      <c r="T166" s="51"/>
+      <c r="U166" s="51"/>
+      <c r="V166" s="51"/>
+      <c r="W166" s="51"/>
+      <c r="X166" s="51"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="32"/>
-      <c r="B167" s="78"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="51"/>
       <c r="E167" s="45"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="78"/>
+      <c r="F167" s="54"/>
+      <c r="G167" s="54"/>
       <c r="H167" s="49"/>
-      <c r="I167" s="55"/>
-      <c r="J167" s="55"/>
-      <c r="K167" s="55"/>
-      <c r="L167" s="55"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="55"/>
-      <c r="O167" s="55"/>
-      <c r="P167" s="55"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="55"/>
-      <c r="S167" s="55"/>
-      <c r="T167" s="55"/>
-      <c r="U167" s="55"/>
-      <c r="V167" s="55"/>
-      <c r="W167" s="55"/>
-      <c r="X167" s="55"/>
+      <c r="I167" s="51"/>
+      <c r="J167" s="51"/>
+      <c r="K167" s="51"/>
+      <c r="L167" s="51"/>
+      <c r="M167" s="51"/>
+      <c r="N167" s="51"/>
+      <c r="O167" s="51"/>
+      <c r="P167" s="51"/>
+      <c r="Q167" s="51"/>
+      <c r="R167" s="51"/>
+      <c r="S167" s="51"/>
+      <c r="T167" s="51"/>
+      <c r="U167" s="51"/>
+      <c r="V167" s="51"/>
+      <c r="W167" s="51"/>
+      <c r="X167" s="51"/>
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="32"/>
-      <c r="B168" s="79"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="55"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="51"/>
       <c r="E168" s="45"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="78"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="55"/>
-      <c r="J168" s="52"/>
-      <c r="K168" s="55"/>
-      <c r="L168" s="55"/>
-      <c r="M168" s="55"/>
-      <c r="N168" s="55"/>
-      <c r="O168" s="55"/>
-      <c r="P168" s="55"/>
-      <c r="Q168" s="55"/>
-      <c r="R168" s="55"/>
-      <c r="S168" s="55"/>
-      <c r="T168" s="55"/>
-      <c r="U168" s="55"/>
-      <c r="V168" s="55"/>
-      <c r="W168" s="55"/>
-      <c r="X168" s="55"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="51"/>
+      <c r="M168" s="51"/>
+      <c r="N168" s="51"/>
+      <c r="O168" s="51"/>
+      <c r="P168" s="51"/>
+      <c r="Q168" s="51"/>
+      <c r="R168" s="51"/>
+      <c r="S168" s="51"/>
+      <c r="T168" s="51"/>
+      <c r="U168" s="51"/>
+      <c r="V168" s="51"/>
+      <c r="W168" s="51"/>
+      <c r="X168" s="51"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="32"/>
-      <c r="B169" s="79"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
       <c r="E169" s="45"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="78"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="54"/>
       <c r="H169" s="49"/>
-      <c r="I169" s="55"/>
-      <c r="J169" s="78"/>
-      <c r="K169" s="55"/>
-      <c r="L169" s="55"/>
-      <c r="M169" s="55"/>
-      <c r="N169" s="55"/>
-      <c r="O169" s="55"/>
-      <c r="P169" s="55"/>
-      <c r="Q169" s="55"/>
-      <c r="R169" s="55"/>
-      <c r="S169" s="55"/>
-      <c r="T169" s="55"/>
-      <c r="U169" s="55"/>
-      <c r="V169" s="55"/>
-      <c r="W169" s="55"/>
-      <c r="X169" s="55"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="51"/>
+      <c r="M169" s="51"/>
+      <c r="N169" s="51"/>
+      <c r="O169" s="51"/>
+      <c r="P169" s="51"/>
+      <c r="Q169" s="51"/>
+      <c r="R169" s="51"/>
+      <c r="S169" s="51"/>
+      <c r="T169" s="51"/>
+      <c r="U169" s="51"/>
+      <c r="V169" s="51"/>
+      <c r="W169" s="51"/>
+      <c r="X169" s="51"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="32"/>
-      <c r="B170" s="78"/>
-      <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="51"/>
       <c r="E170" s="45"/>
-      <c r="F170" s="78"/>
-      <c r="G170" s="78"/>
+      <c r="F170" s="54"/>
+      <c r="G170" s="54"/>
       <c r="H170" s="49"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="78"/>
-      <c r="K170" s="55"/>
-      <c r="L170" s="55"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="55"/>
-      <c r="O170" s="55"/>
-      <c r="P170" s="55"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="55"/>
-      <c r="S170" s="55"/>
-      <c r="T170" s="55"/>
-      <c r="U170" s="55"/>
-      <c r="V170" s="55"/>
-      <c r="W170" s="55"/>
-      <c r="X170" s="55"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="54"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="51"/>
+      <c r="M170" s="51"/>
+      <c r="N170" s="51"/>
+      <c r="O170" s="51"/>
+      <c r="P170" s="51"/>
+      <c r="Q170" s="51"/>
+      <c r="R170" s="51"/>
+      <c r="S170" s="51"/>
+      <c r="T170" s="51"/>
+      <c r="U170" s="51"/>
+      <c r="V170" s="51"/>
+      <c r="W170" s="51"/>
+      <c r="X170" s="51"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="32"/>
-      <c r="B171" s="78"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="55"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="51"/>
       <c r="E171" s="45"/>
-      <c r="F171" s="78"/>
-      <c r="G171" s="78"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="54"/>
       <c r="H171" s="49"/>
-      <c r="I171" s="55"/>
-      <c r="J171" s="98"/>
-      <c r="K171" s="55"/>
-      <c r="L171" s="55"/>
-      <c r="M171" s="55"/>
-      <c r="N171" s="55"/>
-      <c r="O171" s="55"/>
-      <c r="P171" s="55"/>
-      <c r="Q171" s="55"/>
-      <c r="R171" s="55"/>
-      <c r="S171" s="55"/>
-      <c r="T171" s="55"/>
-      <c r="U171" s="55"/>
-      <c r="V171" s="55"/>
-      <c r="W171" s="55"/>
-      <c r="X171" s="55"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="88"/>
+      <c r="K171" s="51"/>
+      <c r="L171" s="51"/>
+      <c r="M171" s="51"/>
+      <c r="N171" s="51"/>
+      <c r="O171" s="51"/>
+      <c r="P171" s="51"/>
+      <c r="Q171" s="51"/>
+      <c r="R171" s="51"/>
+      <c r="S171" s="51"/>
+      <c r="T171" s="51"/>
+      <c r="U171" s="51"/>
+      <c r="V171" s="51"/>
+      <c r="W171" s="51"/>
+      <c r="X171" s="51"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="32"/>
-      <c r="B172" s="78"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="51"/>
       <c r="E172" s="45"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="78"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="54"/>
       <c r="H172" s="49"/>
-      <c r="I172" s="55"/>
-      <c r="J172" s="78"/>
-      <c r="K172" s="55"/>
-      <c r="L172" s="55"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="55"/>
-      <c r="O172" s="55"/>
-      <c r="P172" s="55"/>
-      <c r="Q172" s="55"/>
-      <c r="R172" s="55"/>
-      <c r="S172" s="55"/>
-      <c r="T172" s="55"/>
-      <c r="U172" s="55"/>
-      <c r="V172" s="55"/>
-      <c r="W172" s="55"/>
-      <c r="X172" s="55"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="54"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="51"/>
+      <c r="M172" s="51"/>
+      <c r="N172" s="51"/>
+      <c r="O172" s="51"/>
+      <c r="P172" s="51"/>
+      <c r="Q172" s="51"/>
+      <c r="R172" s="51"/>
+      <c r="S172" s="51"/>
+      <c r="T172" s="51"/>
+      <c r="U172" s="51"/>
+      <c r="V172" s="51"/>
+      <c r="W172" s="51"/>
+      <c r="X172" s="51"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="32"/>
-      <c r="B173" s="78"/>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="51"/>
       <c r="E173" s="45"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="78"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="54"/>
       <c r="H173" s="49"/>
-      <c r="I173" s="55"/>
-      <c r="J173" s="78"/>
-      <c r="K173" s="55"/>
-      <c r="L173" s="55"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="55"/>
-      <c r="O173" s="55"/>
-      <c r="P173" s="55"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="55"/>
-      <c r="S173" s="55"/>
-      <c r="T173" s="55"/>
-      <c r="U173" s="55"/>
-      <c r="V173" s="55"/>
-      <c r="W173" s="55"/>
-      <c r="X173" s="55"/>
+      <c r="I173" s="51"/>
+      <c r="J173" s="54"/>
+      <c r="K173" s="51"/>
+      <c r="L173" s="51"/>
+      <c r="M173" s="51"/>
+      <c r="N173" s="51"/>
+      <c r="O173" s="51"/>
+      <c r="P173" s="51"/>
+      <c r="Q173" s="51"/>
+      <c r="R173" s="51"/>
+      <c r="S173" s="51"/>
+      <c r="T173" s="51"/>
+      <c r="U173" s="51"/>
+      <c r="V173" s="51"/>
+      <c r="W173" s="51"/>
+      <c r="X173" s="51"/>
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="32"/>
-      <c r="B174" s="78"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="55"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="51"/>
+      <c r="D174" s="51"/>
       <c r="E174" s="45"/>
-      <c r="F174" s="78"/>
-      <c r="G174" s="78"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="54"/>
       <c r="H174" s="49"/>
-      <c r="I174" s="55"/>
-      <c r="J174" s="78"/>
-      <c r="K174" s="55"/>
-      <c r="L174" s="55"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="55"/>
-      <c r="O174" s="55"/>
-      <c r="P174" s="55"/>
-      <c r="Q174" s="55"/>
-      <c r="R174" s="55"/>
-      <c r="S174" s="55"/>
-      <c r="T174" s="55"/>
-      <c r="U174" s="55"/>
-      <c r="V174" s="55"/>
-      <c r="W174" s="55"/>
-      <c r="X174" s="55"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="54"/>
+      <c r="K174" s="51"/>
+      <c r="L174" s="51"/>
+      <c r="M174" s="51"/>
+      <c r="N174" s="51"/>
+      <c r="O174" s="51"/>
+      <c r="P174" s="51"/>
+      <c r="Q174" s="51"/>
+      <c r="R174" s="51"/>
+      <c r="S174" s="51"/>
+      <c r="T174" s="51"/>
+      <c r="U174" s="51"/>
+      <c r="V174" s="51"/>
+      <c r="W174" s="51"/>
+      <c r="X174" s="51"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="32"/>
-      <c r="B175" s="78"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="51"/>
       <c r="E175" s="45"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="78"/>
+      <c r="F175" s="54"/>
+      <c r="G175" s="54"/>
       <c r="H175" s="49"/>
-      <c r="I175" s="78"/>
-      <c r="J175" s="78"/>
-      <c r="K175" s="55"/>
-      <c r="L175" s="55"/>
-      <c r="M175" s="55"/>
-      <c r="N175" s="55"/>
-      <c r="O175" s="55"/>
-      <c r="P175" s="55"/>
-      <c r="Q175" s="55"/>
-      <c r="R175" s="55"/>
-      <c r="S175" s="55"/>
-      <c r="T175" s="55"/>
-      <c r="U175" s="55"/>
-      <c r="V175" s="55"/>
-      <c r="W175" s="55"/>
-      <c r="X175" s="55"/>
+      <c r="I175" s="54"/>
+      <c r="J175" s="54"/>
+      <c r="K175" s="51"/>
+      <c r="L175" s="51"/>
+      <c r="M175" s="51"/>
+      <c r="N175" s="51"/>
+      <c r="O175" s="51"/>
+      <c r="P175" s="51"/>
+      <c r="Q175" s="51"/>
+      <c r="R175" s="51"/>
+      <c r="S175" s="51"/>
+      <c r="T175" s="51"/>
+      <c r="U175" s="51"/>
+      <c r="V175" s="51"/>
+      <c r="W175" s="51"/>
+      <c r="X175" s="51"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="32"/>
-      <c r="B176" s="78"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="55"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="51"/>
       <c r="E176" s="45"/>
-      <c r="F176" s="78"/>
-      <c r="G176" s="78"/>
+      <c r="F176" s="54"/>
+      <c r="G176" s="54"/>
       <c r="H176" s="49"/>
-      <c r="I176" s="78"/>
-      <c r="J176" s="78"/>
-      <c r="K176" s="55"/>
-      <c r="L176" s="55"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="55"/>
-      <c r="O176" s="55"/>
-      <c r="P176" s="55"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="55"/>
-      <c r="S176" s="55"/>
-      <c r="T176" s="55"/>
-      <c r="U176" s="55"/>
-      <c r="V176" s="55"/>
-      <c r="W176" s="55"/>
-      <c r="X176" s="55"/>
+      <c r="I176" s="54"/>
+      <c r="J176" s="54"/>
+      <c r="K176" s="51"/>
+      <c r="L176" s="51"/>
+      <c r="M176" s="51"/>
+      <c r="N176" s="51"/>
+      <c r="O176" s="51"/>
+      <c r="P176" s="51"/>
+      <c r="Q176" s="51"/>
+      <c r="R176" s="51"/>
+      <c r="S176" s="51"/>
+      <c r="T176" s="51"/>
+      <c r="U176" s="51"/>
+      <c r="V176" s="51"/>
+      <c r="W176" s="51"/>
+      <c r="X176" s="51"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
       <c r="AA176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="32"/>
-      <c r="B177" s="79"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="55"/>
+      <c r="B177" s="70"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
       <c r="E177" s="45"/>
-      <c r="F177" s="78"/>
-      <c r="G177" s="78"/>
+      <c r="F177" s="54"/>
+      <c r="G177" s="54"/>
       <c r="H177" s="49"/>
-      <c r="I177" s="78"/>
-      <c r="J177" s="78"/>
-      <c r="K177" s="55"/>
-      <c r="L177" s="55"/>
-      <c r="M177" s="55"/>
-      <c r="N177" s="55"/>
-      <c r="O177" s="55"/>
-      <c r="P177" s="55"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="55"/>
-      <c r="S177" s="55"/>
-      <c r="T177" s="55"/>
-      <c r="U177" s="55"/>
-      <c r="V177" s="55"/>
-      <c r="W177" s="55"/>
-      <c r="X177" s="55"/>
+      <c r="I177" s="54"/>
+      <c r="J177" s="54"/>
+      <c r="K177" s="51"/>
+      <c r="L177" s="51"/>
+      <c r="M177" s="51"/>
+      <c r="N177" s="51"/>
+      <c r="O177" s="51"/>
+      <c r="P177" s="51"/>
+      <c r="Q177" s="51"/>
+      <c r="R177" s="51"/>
+      <c r="S177" s="51"/>
+      <c r="T177" s="51"/>
+      <c r="U177" s="51"/>
+      <c r="V177" s="51"/>
+      <c r="W177" s="51"/>
+      <c r="X177" s="51"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="32"/>
-      <c r="B178" s="78"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="55"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
       <c r="E178" s="45"/>
-      <c r="F178" s="78"/>
-      <c r="G178" s="78"/>
-      <c r="H178" s="78"/>
-      <c r="I178" s="78"/>
-      <c r="J178" s="78"/>
-      <c r="K178" s="55"/>
-      <c r="L178" s="55"/>
-      <c r="M178" s="55"/>
-      <c r="N178" s="55"/>
-      <c r="O178" s="55"/>
-      <c r="P178" s="55"/>
-      <c r="Q178" s="55"/>
-      <c r="R178" s="55"/>
-      <c r="S178" s="55"/>
-      <c r="T178" s="55"/>
-      <c r="U178" s="55"/>
-      <c r="V178" s="55"/>
-      <c r="W178" s="55"/>
-      <c r="X178" s="55"/>
+      <c r="F178" s="54"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="54"/>
+      <c r="J178" s="54"/>
+      <c r="K178" s="51"/>
+      <c r="L178" s="51"/>
+      <c r="M178" s="51"/>
+      <c r="N178" s="51"/>
+      <c r="O178" s="51"/>
+      <c r="P178" s="51"/>
+      <c r="Q178" s="51"/>
+      <c r="R178" s="51"/>
+      <c r="S178" s="51"/>
+      <c r="T178" s="51"/>
+      <c r="U178" s="51"/>
+      <c r="V178" s="51"/>
+      <c r="W178" s="51"/>
+      <c r="X178" s="51"/>
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
       <c r="AA178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="32"/>
-      <c r="B179" s="78"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="55"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="51"/>
       <c r="E179" s="45"/>
-      <c r="F179" s="99"/>
-      <c r="G179" s="99"/>
-      <c r="H179" s="78"/>
-      <c r="I179" s="78"/>
-      <c r="J179" s="78"/>
-      <c r="K179" s="55"/>
-      <c r="L179" s="55"/>
-      <c r="M179" s="55"/>
-      <c r="N179" s="55"/>
-      <c r="O179" s="55"/>
-      <c r="P179" s="55"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="55"/>
-      <c r="S179" s="55"/>
-      <c r="T179" s="55"/>
-      <c r="U179" s="55"/>
-      <c r="V179" s="55"/>
-      <c r="W179" s="55"/>
-      <c r="X179" s="55"/>
+      <c r="F179" s="89"/>
+      <c r="G179" s="89"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="54"/>
+      <c r="K179" s="51"/>
+      <c r="L179" s="51"/>
+      <c r="M179" s="51"/>
+      <c r="N179" s="51"/>
+      <c r="O179" s="51"/>
+      <c r="P179" s="51"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="51"/>
+      <c r="S179" s="51"/>
+      <c r="T179" s="51"/>
+      <c r="U179" s="51"/>
+      <c r="V179" s="51"/>
+      <c r="W179" s="51"/>
+      <c r="X179" s="51"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="32"/>
-      <c r="B180" s="78"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="55"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="51"/>
       <c r="E180" s="45"/>
-      <c r="F180" s="99"/>
-      <c r="G180" s="99"/>
-      <c r="H180" s="78"/>
-      <c r="I180" s="78"/>
-      <c r="J180" s="93"/>
-      <c r="K180" s="55"/>
-      <c r="L180" s="55"/>
-      <c r="M180" s="55"/>
-      <c r="N180" s="55"/>
-      <c r="O180" s="55"/>
-      <c r="P180" s="55"/>
-      <c r="Q180" s="55"/>
-      <c r="R180" s="55"/>
-      <c r="S180" s="55"/>
-      <c r="T180" s="55"/>
-      <c r="U180" s="55"/>
-      <c r="V180" s="55"/>
-      <c r="W180" s="55"/>
-      <c r="X180" s="55"/>
+      <c r="F180" s="89"/>
+      <c r="G180" s="89"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="54"/>
+      <c r="J180" s="83"/>
+      <c r="K180" s="51"/>
+      <c r="L180" s="51"/>
+      <c r="M180" s="51"/>
+      <c r="N180" s="51"/>
+      <c r="O180" s="51"/>
+      <c r="P180" s="51"/>
+      <c r="Q180" s="51"/>
+      <c r="R180" s="51"/>
+      <c r="S180" s="51"/>
+      <c r="T180" s="51"/>
+      <c r="U180" s="51"/>
+      <c r="V180" s="51"/>
+      <c r="W180" s="51"/>
+      <c r="X180" s="51"/>
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
       <c r="AA180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="32"/>
-      <c r="B181" s="78"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
+      <c r="B181" s="54"/>
+      <c r="C181" s="51"/>
+      <c r="D181" s="51"/>
       <c r="E181" s="45"/>
-      <c r="F181" s="99"/>
-      <c r="G181" s="99"/>
-      <c r="H181" s="78"/>
-      <c r="I181" s="78"/>
-      <c r="J181" s="78"/>
-      <c r="K181" s="55"/>
-      <c r="L181" s="55"/>
-      <c r="M181" s="55"/>
-      <c r="N181" s="55"/>
-      <c r="O181" s="55"/>
-      <c r="P181" s="55"/>
-      <c r="Q181" s="55"/>
-      <c r="R181" s="55"/>
-      <c r="S181" s="55"/>
-      <c r="T181" s="55"/>
-      <c r="U181" s="55"/>
-      <c r="V181" s="55"/>
-      <c r="W181" s="55"/>
-      <c r="X181" s="55"/>
+      <c r="F181" s="89"/>
+      <c r="G181" s="89"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="54"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="51"/>
+      <c r="N181" s="51"/>
+      <c r="O181" s="51"/>
+      <c r="P181" s="51"/>
+      <c r="Q181" s="51"/>
+      <c r="R181" s="51"/>
+      <c r="S181" s="51"/>
+      <c r="T181" s="51"/>
+      <c r="U181" s="51"/>
+      <c r="V181" s="51"/>
+      <c r="W181" s="51"/>
+      <c r="X181" s="51"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="32"/>
-      <c r="B182" s="78"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="51"/>
+      <c r="D182" s="51"/>
       <c r="E182" s="45"/>
-      <c r="F182" s="99"/>
-      <c r="G182" s="99"/>
-      <c r="H182" s="78"/>
-      <c r="I182" s="78"/>
-      <c r="J182" s="78"/>
-      <c r="K182" s="55"/>
-      <c r="L182" s="55"/>
-      <c r="M182" s="55"/>
-      <c r="N182" s="55"/>
-      <c r="O182" s="55"/>
-      <c r="P182" s="55"/>
-      <c r="Q182" s="55"/>
-      <c r="R182" s="55"/>
-      <c r="S182" s="55"/>
-      <c r="T182" s="55"/>
-      <c r="U182" s="55"/>
-      <c r="V182" s="55"/>
-      <c r="W182" s="55"/>
-      <c r="X182" s="55"/>
+      <c r="F182" s="89"/>
+      <c r="G182" s="89"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="54"/>
+      <c r="J182" s="54"/>
+      <c r="K182" s="51"/>
+      <c r="L182" s="51"/>
+      <c r="M182" s="51"/>
+      <c r="N182" s="51"/>
+      <c r="O182" s="51"/>
+      <c r="P182" s="51"/>
+      <c r="Q182" s="51"/>
+      <c r="R182" s="51"/>
+      <c r="S182" s="51"/>
+      <c r="T182" s="51"/>
+      <c r="U182" s="51"/>
+      <c r="V182" s="51"/>
+      <c r="W182" s="51"/>
+      <c r="X182" s="51"/>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
       <c r="AA182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="32"/>
-      <c r="B183" s="78"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="51"/>
+      <c r="D183" s="51"/>
       <c r="E183" s="45"/>
-      <c r="F183" s="99"/>
-      <c r="G183" s="99"/>
-      <c r="H183" s="78"/>
-      <c r="I183" s="78"/>
-      <c r="J183" s="78"/>
-      <c r="K183" s="55"/>
-      <c r="L183" s="55"/>
-      <c r="M183" s="55"/>
-      <c r="N183" s="55"/>
-      <c r="O183" s="55"/>
-      <c r="P183" s="55"/>
-      <c r="Q183" s="55"/>
-      <c r="R183" s="55"/>
-      <c r="S183" s="55"/>
-      <c r="T183" s="55"/>
-      <c r="U183" s="55"/>
-      <c r="V183" s="55"/>
-      <c r="W183" s="55"/>
-      <c r="X183" s="55"/>
+      <c r="F183" s="89"/>
+      <c r="G183" s="89"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="54"/>
+      <c r="J183" s="54"/>
+      <c r="K183" s="51"/>
+      <c r="L183" s="51"/>
+      <c r="M183" s="51"/>
+      <c r="N183" s="51"/>
+      <c r="O183" s="51"/>
+      <c r="P183" s="51"/>
+      <c r="Q183" s="51"/>
+      <c r="R183" s="51"/>
+      <c r="S183" s="51"/>
+      <c r="T183" s="51"/>
+      <c r="U183" s="51"/>
+      <c r="V183" s="51"/>
+      <c r="W183" s="51"/>
+      <c r="X183" s="51"/>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="32"/>
-      <c r="B184" s="78"/>
-      <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="51"/>
+      <c r="D184" s="51"/>
       <c r="E184" s="45"/>
-      <c r="F184" s="99"/>
-      <c r="G184" s="99"/>
-      <c r="H184" s="78"/>
-      <c r="I184" s="78"/>
-      <c r="J184" s="100"/>
-      <c r="K184" s="55"/>
-      <c r="L184" s="55"/>
-      <c r="M184" s="55"/>
-      <c r="N184" s="55"/>
-      <c r="O184" s="55"/>
-      <c r="P184" s="55"/>
-      <c r="Q184" s="55"/>
-      <c r="R184" s="55"/>
-      <c r="S184" s="55"/>
-      <c r="T184" s="55"/>
-      <c r="U184" s="55"/>
-      <c r="V184" s="55"/>
-      <c r="W184" s="55"/>
-      <c r="X184" s="55"/>
+      <c r="F184" s="89"/>
+      <c r="G184" s="89"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="54"/>
+      <c r="J184" s="90"/>
+      <c r="K184" s="51"/>
+      <c r="L184" s="51"/>
+      <c r="M184" s="51"/>
+      <c r="N184" s="51"/>
+      <c r="O184" s="51"/>
+      <c r="P184" s="51"/>
+      <c r="Q184" s="51"/>
+      <c r="R184" s="51"/>
+      <c r="S184" s="51"/>
+      <c r="T184" s="51"/>
+      <c r="U184" s="51"/>
+      <c r="V184" s="51"/>
+      <c r="W184" s="51"/>
+      <c r="X184" s="51"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
       <c r="AA184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="32"/>
-      <c r="B185" s="78"/>
-      <c r="C185" s="55"/>
-      <c r="D185" s="55"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="51"/>
+      <c r="D185" s="51"/>
       <c r="E185" s="45"/>
-      <c r="F185" s="101"/>
-      <c r="G185" s="101"/>
-      <c r="H185" s="78"/>
-      <c r="I185" s="78"/>
-      <c r="J185" s="100"/>
-      <c r="K185" s="55"/>
-      <c r="L185" s="55"/>
-      <c r="M185" s="55"/>
-      <c r="N185" s="55"/>
-      <c r="O185" s="55"/>
-      <c r="P185" s="55"/>
-      <c r="Q185" s="55"/>
-      <c r="R185" s="55"/>
-      <c r="S185" s="55"/>
-      <c r="T185" s="55"/>
-      <c r="U185" s="55"/>
-      <c r="V185" s="55"/>
-      <c r="W185" s="55"/>
-      <c r="X185" s="55"/>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="90"/>
+      <c r="K185" s="51"/>
+      <c r="L185" s="51"/>
+      <c r="M185" s="51"/>
+      <c r="N185" s="51"/>
+      <c r="O185" s="51"/>
+      <c r="P185" s="51"/>
+      <c r="Q185" s="51"/>
+      <c r="R185" s="51"/>
+      <c r="S185" s="51"/>
+      <c r="T185" s="51"/>
+      <c r="U185" s="51"/>
+      <c r="V185" s="51"/>
+      <c r="W185" s="51"/>
+      <c r="X185" s="51"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="32"/>
-      <c r="B186" s="78"/>
-      <c r="C186" s="55"/>
-      <c r="D186" s="55"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
       <c r="E186" s="45"/>
-      <c r="F186" s="99"/>
-      <c r="G186" s="99"/>
-      <c r="H186" s="78"/>
-      <c r="I186" s="78"/>
-      <c r="J186" s="93"/>
-      <c r="K186" s="55"/>
-      <c r="L186" s="55"/>
-      <c r="M186" s="55"/>
-      <c r="N186" s="55"/>
-      <c r="O186" s="55"/>
-      <c r="P186" s="55"/>
-      <c r="Q186" s="55"/>
-      <c r="R186" s="55"/>
-      <c r="S186" s="55"/>
-      <c r="T186" s="55"/>
-      <c r="U186" s="55"/>
-      <c r="V186" s="55"/>
-      <c r="W186" s="55"/>
-      <c r="X186" s="55"/>
+      <c r="F186" s="89"/>
+      <c r="G186" s="89"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="54"/>
+      <c r="J186" s="83"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="51"/>
+      <c r="M186" s="51"/>
+      <c r="N186" s="51"/>
+      <c r="O186" s="51"/>
+      <c r="P186" s="51"/>
+      <c r="Q186" s="51"/>
+      <c r="R186" s="51"/>
+      <c r="S186" s="51"/>
+      <c r="T186" s="51"/>
+      <c r="U186" s="51"/>
+      <c r="V186" s="51"/>
+      <c r="W186" s="51"/>
+      <c r="X186" s="51"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
       <c r="AA186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="32"/>
-      <c r="B187" s="78"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="55"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
       <c r="E187" s="45"/>
-      <c r="F187" s="99"/>
-      <c r="G187" s="99"/>
-      <c r="H187" s="78"/>
-      <c r="I187" s="78"/>
-      <c r="J187" s="99"/>
-      <c r="K187" s="55"/>
-      <c r="L187" s="55"/>
-      <c r="M187" s="55"/>
-      <c r="N187" s="55"/>
-      <c r="O187" s="55"/>
-      <c r="P187" s="55"/>
-      <c r="Q187" s="55"/>
-      <c r="R187" s="55"/>
-      <c r="S187" s="55"/>
-      <c r="T187" s="55"/>
-      <c r="U187" s="55"/>
-      <c r="V187" s="55"/>
-      <c r="W187" s="55"/>
-      <c r="X187" s="55"/>
+      <c r="F187" s="89"/>
+      <c r="G187" s="89"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="54"/>
+      <c r="J187" s="89"/>
+      <c r="K187" s="51"/>
+      <c r="L187" s="51"/>
+      <c r="M187" s="51"/>
+      <c r="N187" s="51"/>
+      <c r="O187" s="51"/>
+      <c r="P187" s="51"/>
+      <c r="Q187" s="51"/>
+      <c r="R187" s="51"/>
+      <c r="S187" s="51"/>
+      <c r="T187" s="51"/>
+      <c r="U187" s="51"/>
+      <c r="V187" s="51"/>
+      <c r="W187" s="51"/>
+      <c r="X187" s="51"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="32"/>
-      <c r="B188" s="78"/>
-      <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="51"/>
       <c r="E188" s="45"/>
-      <c r="H188" s="78"/>
-      <c r="I188" s="78"/>
-      <c r="K188" s="55"/>
-      <c r="L188" s="55"/>
-      <c r="M188" s="55"/>
-      <c r="N188" s="55"/>
-      <c r="O188" s="55"/>
-      <c r="P188" s="55"/>
-      <c r="Q188" s="55"/>
-      <c r="R188" s="55"/>
-      <c r="S188" s="55"/>
-      <c r="T188" s="55"/>
-      <c r="U188" s="55"/>
-      <c r="V188" s="55"/>
-      <c r="W188" s="55"/>
-      <c r="X188" s="55"/>
+      <c r="H188" s="54"/>
+      <c r="I188" s="54"/>
+      <c r="K188" s="51"/>
+      <c r="L188" s="51"/>
+      <c r="M188" s="51"/>
+      <c r="N188" s="51"/>
+      <c r="O188" s="51"/>
+      <c r="P188" s="51"/>
+      <c r="Q188" s="51"/>
+      <c r="R188" s="51"/>
+      <c r="S188" s="51"/>
+      <c r="T188" s="51"/>
+      <c r="U188" s="51"/>
+      <c r="V188" s="51"/>
+      <c r="W188" s="51"/>
+      <c r="X188" s="51"/>
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
       <c r="AA188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="32"/>
-      <c r="B189" s="78"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
       <c r="E189" s="45"/>
-      <c r="F189" s="99"/>
-      <c r="G189" s="99"/>
-      <c r="H189" s="78"/>
-      <c r="I189" s="78"/>
-      <c r="J189" s="99"/>
-      <c r="K189" s="55"/>
-      <c r="L189" s="55"/>
-      <c r="M189" s="55"/>
-      <c r="N189" s="55"/>
-      <c r="O189" s="55"/>
-      <c r="P189" s="55"/>
-      <c r="Q189" s="55"/>
-      <c r="R189" s="55"/>
-      <c r="S189" s="55"/>
-      <c r="T189" s="55"/>
-      <c r="U189" s="55"/>
-      <c r="V189" s="55"/>
-      <c r="W189" s="55"/>
-      <c r="X189" s="55"/>
+      <c r="F189" s="89"/>
+      <c r="G189" s="89"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="54"/>
+      <c r="J189" s="89"/>
+      <c r="K189" s="51"/>
+      <c r="L189" s="51"/>
+      <c r="M189" s="51"/>
+      <c r="N189" s="51"/>
+      <c r="O189" s="51"/>
+      <c r="P189" s="51"/>
+      <c r="Q189" s="51"/>
+      <c r="R189" s="51"/>
+      <c r="S189" s="51"/>
+      <c r="T189" s="51"/>
+      <c r="U189" s="51"/>
+      <c r="V189" s="51"/>
+      <c r="W189" s="51"/>
+      <c r="X189" s="51"/>
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="32"/>
-      <c r="B190" s="78"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="55"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
       <c r="E190" s="45"/>
-      <c r="F190" s="99"/>
-      <c r="G190" s="99"/>
-      <c r="H190" s="78"/>
-      <c r="I190" s="78"/>
-      <c r="J190" s="99"/>
-      <c r="K190" s="55"/>
-      <c r="L190" s="55"/>
-      <c r="M190" s="55"/>
-      <c r="N190" s="55"/>
-      <c r="O190" s="55"/>
-      <c r="P190" s="55"/>
-      <c r="Q190" s="55"/>
-      <c r="R190" s="55"/>
-      <c r="S190" s="55"/>
-      <c r="T190" s="55"/>
-      <c r="U190" s="55"/>
-      <c r="V190" s="55"/>
-      <c r="W190" s="55"/>
-      <c r="X190" s="55"/>
+      <c r="F190" s="89"/>
+      <c r="G190" s="89"/>
+      <c r="H190" s="54"/>
+      <c r="I190" s="54"/>
+      <c r="J190" s="89"/>
+      <c r="K190" s="51"/>
+      <c r="L190" s="51"/>
+      <c r="M190" s="51"/>
+      <c r="N190" s="51"/>
+      <c r="O190" s="51"/>
+      <c r="P190" s="51"/>
+      <c r="Q190" s="51"/>
+      <c r="R190" s="51"/>
+      <c r="S190" s="51"/>
+      <c r="T190" s="51"/>
+      <c r="U190" s="51"/>
+      <c r="V190" s="51"/>
+      <c r="W190" s="51"/>
+      <c r="X190" s="51"/>
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
       <c r="AA190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="32"/>
-      <c r="B191" s="78"/>
-      <c r="C191" s="55"/>
-      <c r="D191" s="55"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
       <c r="E191" s="45"/>
-      <c r="F191" s="99"/>
-      <c r="G191" s="99"/>
-      <c r="H191" s="78"/>
-      <c r="I191" s="78"/>
-      <c r="J191" s="99"/>
-      <c r="K191" s="55"/>
-      <c r="L191" s="55"/>
-      <c r="M191" s="55"/>
-      <c r="N191" s="55"/>
-      <c r="O191" s="55"/>
-      <c r="P191" s="55"/>
-      <c r="Q191" s="55"/>
-      <c r="R191" s="55"/>
-      <c r="S191" s="55"/>
-      <c r="T191" s="55"/>
-      <c r="U191" s="55"/>
-      <c r="V191" s="55"/>
-      <c r="W191" s="55"/>
-      <c r="X191" s="55"/>
+      <c r="F191" s="89"/>
+      <c r="G191" s="89"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="54"/>
+      <c r="J191" s="89"/>
+      <c r="K191" s="51"/>
+      <c r="L191" s="51"/>
+      <c r="M191" s="51"/>
+      <c r="N191" s="51"/>
+      <c r="O191" s="51"/>
+      <c r="P191" s="51"/>
+      <c r="Q191" s="51"/>
+      <c r="R191" s="51"/>
+      <c r="S191" s="51"/>
+      <c r="T191" s="51"/>
+      <c r="U191" s="51"/>
+      <c r="V191" s="51"/>
+      <c r="W191" s="51"/>
+      <c r="X191" s="51"/>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="32"/>
-      <c r="B192" s="78"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="55"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
       <c r="E192" s="45"/>
-      <c r="F192" s="99"/>
-      <c r="G192" s="99"/>
-      <c r="H192" s="78"/>
-      <c r="I192" s="78"/>
-      <c r="J192" s="99"/>
-      <c r="K192" s="55"/>
-      <c r="L192" s="55"/>
-      <c r="M192" s="55"/>
-      <c r="N192" s="55"/>
-      <c r="O192" s="55"/>
-      <c r="P192" s="55"/>
-      <c r="Q192" s="55"/>
-      <c r="R192" s="55"/>
-      <c r="S192" s="55"/>
-      <c r="T192" s="55"/>
-      <c r="U192" s="55"/>
-      <c r="V192" s="55"/>
-      <c r="W192" s="55"/>
-      <c r="X192" s="55"/>
+      <c r="F192" s="89"/>
+      <c r="G192" s="89"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="54"/>
+      <c r="J192" s="89"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="51"/>
+      <c r="M192" s="51"/>
+      <c r="N192" s="51"/>
+      <c r="O192" s="51"/>
+      <c r="P192" s="51"/>
+      <c r="Q192" s="51"/>
+      <c r="R192" s="51"/>
+      <c r="S192" s="51"/>
+      <c r="T192" s="51"/>
+      <c r="U192" s="51"/>
+      <c r="V192" s="51"/>
+      <c r="W192" s="51"/>
+      <c r="X192" s="51"/>
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
       <c r="AA192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="32"/>
-      <c r="B193" s="79"/>
+      <c r="B193" s="70"/>
       <c r="E193" s="45"/>
-      <c r="F193" s="99"/>
-      <c r="G193" s="99"/>
-      <c r="H193" s="78"/>
-      <c r="I193" s="78"/>
-      <c r="J193" s="100"/>
-      <c r="K193" s="55"/>
-      <c r="L193" s="55"/>
-      <c r="M193" s="55"/>
-      <c r="N193" s="55"/>
-      <c r="O193" s="55"/>
-      <c r="P193" s="55"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="55"/>
-      <c r="S193" s="55"/>
-      <c r="T193" s="55"/>
-      <c r="U193" s="55"/>
-      <c r="V193" s="55"/>
-      <c r="W193" s="55"/>
-      <c r="X193" s="55"/>
+      <c r="F193" s="89"/>
+      <c r="G193" s="89"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="54"/>
+      <c r="J193" s="90"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="51"/>
+      <c r="M193" s="51"/>
+      <c r="N193" s="51"/>
+      <c r="O193" s="51"/>
+      <c r="P193" s="51"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="51"/>
+      <c r="S193" s="51"/>
+      <c r="T193" s="51"/>
+      <c r="U193" s="51"/>
+      <c r="V193" s="51"/>
+      <c r="W193" s="51"/>
+      <c r="X193" s="51"/>
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="32"/>
-      <c r="B194" s="78"/>
+      <c r="B194" s="54"/>
       <c r="E194" s="45"/>
-      <c r="H194" s="78"/>
-      <c r="I194" s="78"/>
-      <c r="K194" s="55"/>
-      <c r="L194" s="55"/>
-      <c r="M194" s="55"/>
-      <c r="N194" s="55"/>
-      <c r="O194" s="55"/>
-      <c r="P194" s="55"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="55"/>
-      <c r="S194" s="55"/>
-      <c r="T194" s="55"/>
-      <c r="U194" s="55"/>
-      <c r="V194" s="55"/>
-      <c r="W194" s="55"/>
-      <c r="X194" s="55"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="54"/>
+      <c r="K194" s="51"/>
+      <c r="L194" s="51"/>
+      <c r="M194" s="51"/>
+      <c r="N194" s="51"/>
+      <c r="O194" s="51"/>
+      <c r="P194" s="51"/>
+      <c r="Q194" s="51"/>
+      <c r="R194" s="51"/>
+      <c r="S194" s="51"/>
+      <c r="T194" s="51"/>
+      <c r="U194" s="51"/>
+      <c r="V194" s="51"/>
+      <c r="W194" s="51"/>
+      <c r="X194" s="51"/>
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
       <c r="AA194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="32"/>
-      <c r="B195" s="78"/>
+      <c r="B195" s="54"/>
       <c r="E195" s="45"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="78"/>
-      <c r="I195" s="78"/>
-      <c r="J195" s="78"/>
-      <c r="K195" s="55"/>
-      <c r="L195" s="55"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="55"/>
-      <c r="O195" s="55"/>
-      <c r="P195" s="55"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="55"/>
-      <c r="S195" s="55"/>
-      <c r="T195" s="55"/>
-      <c r="U195" s="55"/>
-      <c r="V195" s="55"/>
-      <c r="W195" s="55"/>
-      <c r="X195" s="55"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
+      <c r="K195" s="51"/>
+      <c r="L195" s="51"/>
+      <c r="M195" s="51"/>
+      <c r="N195" s="51"/>
+      <c r="O195" s="51"/>
+      <c r="P195" s="51"/>
+      <c r="Q195" s="51"/>
+      <c r="R195" s="51"/>
+      <c r="S195" s="51"/>
+      <c r="T195" s="51"/>
+      <c r="U195" s="51"/>
+      <c r="V195" s="51"/>
+      <c r="W195" s="51"/>
+      <c r="X195" s="51"/>
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="32"/>
-      <c r="B196" s="78"/>
+      <c r="B196" s="54"/>
       <c r="E196" s="45"/>
-      <c r="F196" s="78"/>
-      <c r="G196" s="78"/>
-      <c r="H196" s="78"/>
-      <c r="I196" s="78"/>
-      <c r="J196" s="78"/>
-      <c r="K196" s="55"/>
-      <c r="L196" s="55"/>
-      <c r="M196" s="55"/>
-      <c r="N196" s="55"/>
-      <c r="O196" s="55"/>
-      <c r="P196" s="55"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="55"/>
-      <c r="S196" s="55"/>
-      <c r="T196" s="55"/>
-      <c r="U196" s="55"/>
-      <c r="V196" s="55"/>
-      <c r="W196" s="55"/>
-      <c r="X196" s="55"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="54"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="54"/>
+      <c r="J196" s="54"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="51"/>
+      <c r="M196" s="51"/>
+      <c r="N196" s="51"/>
+      <c r="O196" s="51"/>
+      <c r="P196" s="51"/>
+      <c r="Q196" s="51"/>
+      <c r="R196" s="51"/>
+      <c r="S196" s="51"/>
+      <c r="T196" s="51"/>
+      <c r="U196" s="51"/>
+      <c r="V196" s="51"/>
+      <c r="W196" s="51"/>
+      <c r="X196" s="51"/>
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
       <c r="AA196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="32"/>
-      <c r="B197" s="78"/>
-      <c r="C197" s="78"/>
-      <c r="D197" s="78"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
       <c r="E197" s="45"/>
-      <c r="F197" s="99"/>
-      <c r="G197" s="99"/>
-      <c r="H197" s="78"/>
-      <c r="I197" s="78"/>
-      <c r="J197" s="99"/>
-      <c r="K197" s="55"/>
-      <c r="L197" s="55"/>
-      <c r="M197" s="55"/>
-      <c r="N197" s="55"/>
-      <c r="O197" s="55"/>
-      <c r="P197" s="55"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="55"/>
-      <c r="S197" s="55"/>
-      <c r="T197" s="55"/>
-      <c r="U197" s="55"/>
-      <c r="V197" s="55"/>
-      <c r="W197" s="55"/>
-      <c r="X197" s="55"/>
+      <c r="F197" s="89"/>
+      <c r="G197" s="89"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="89"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="51"/>
+      <c r="M197" s="51"/>
+      <c r="N197" s="51"/>
+      <c r="O197" s="51"/>
+      <c r="P197" s="51"/>
+      <c r="Q197" s="51"/>
+      <c r="R197" s="51"/>
+      <c r="S197" s="51"/>
+      <c r="T197" s="51"/>
+      <c r="U197" s="51"/>
+      <c r="V197" s="51"/>
+      <c r="W197" s="51"/>
+      <c r="X197" s="51"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
       <c r="AA197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="32"/>
-      <c r="B198" s="78"/>
+      <c r="B198" s="54"/>
       <c r="E198" s="45"/>
-      <c r="F198" s="78"/>
-      <c r="G198" s="78"/>
-      <c r="H198" s="78"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="78"/>
-      <c r="K198" s="55"/>
-      <c r="L198" s="55"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
-      <c r="O198" s="55"/>
-      <c r="P198" s="55"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="55"/>
-      <c r="S198" s="55"/>
-      <c r="T198" s="55"/>
-      <c r="U198" s="55"/>
-      <c r="V198" s="55"/>
-      <c r="W198" s="55"/>
-      <c r="X198" s="55"/>
+      <c r="F198" s="54"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="51"/>
+      <c r="M198" s="51"/>
+      <c r="N198" s="51"/>
+      <c r="O198" s="51"/>
+      <c r="P198" s="51"/>
+      <c r="Q198" s="51"/>
+      <c r="R198" s="51"/>
+      <c r="S198" s="51"/>
+      <c r="T198" s="51"/>
+      <c r="U198" s="51"/>
+      <c r="V198" s="51"/>
+      <c r="W198" s="51"/>
+      <c r="X198" s="51"/>
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="32"/>
-      <c r="B199" s="78"/>
+      <c r="B199" s="54"/>
       <c r="E199" s="45"/>
-      <c r="F199" s="99"/>
-      <c r="G199" s="99"/>
-      <c r="H199" s="78"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="100"/>
-      <c r="K199" s="55"/>
-      <c r="L199" s="55"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="55"/>
-      <c r="O199" s="55"/>
-      <c r="P199" s="55"/>
-      <c r="Q199" s="55"/>
-      <c r="R199" s="55"/>
-      <c r="S199" s="55"/>
-      <c r="T199" s="55"/>
-      <c r="U199" s="55"/>
-      <c r="V199" s="55"/>
-      <c r="W199" s="55"/>
-      <c r="X199" s="55"/>
+      <c r="F199" s="89"/>
+      <c r="G199" s="89"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="90"/>
+      <c r="K199" s="51"/>
+      <c r="L199" s="51"/>
+      <c r="M199" s="51"/>
+      <c r="N199" s="51"/>
+      <c r="O199" s="51"/>
+      <c r="P199" s="51"/>
+      <c r="Q199" s="51"/>
+      <c r="R199" s="51"/>
+      <c r="S199" s="51"/>
+      <c r="T199" s="51"/>
+      <c r="U199" s="51"/>
+      <c r="V199" s="51"/>
+      <c r="W199" s="51"/>
+      <c r="X199" s="51"/>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="32"/>
-      <c r="B200" s="78"/>
+      <c r="B200" s="54"/>
       <c r="E200" s="45"/>
-      <c r="F200" s="78"/>
-      <c r="G200" s="78"/>
-      <c r="H200" s="78"/>
-      <c r="I200" s="55"/>
-      <c r="J200" s="78"/>
-      <c r="K200" s="55"/>
-      <c r="L200" s="55"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="55"/>
-      <c r="O200" s="55"/>
-      <c r="P200" s="55"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="55"/>
-      <c r="S200" s="55"/>
-      <c r="T200" s="55"/>
-      <c r="U200" s="55"/>
-      <c r="V200" s="55"/>
-      <c r="W200" s="55"/>
-      <c r="X200" s="55"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="51"/>
+      <c r="L200" s="51"/>
+      <c r="M200" s="51"/>
+      <c r="N200" s="51"/>
+      <c r="O200" s="51"/>
+      <c r="P200" s="51"/>
+      <c r="Q200" s="51"/>
+      <c r="R200" s="51"/>
+      <c r="S200" s="51"/>
+      <c r="T200" s="51"/>
+      <c r="U200" s="51"/>
+      <c r="V200" s="51"/>
+      <c r="W200" s="51"/>
+      <c r="X200" s="51"/>
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="32"/>
-      <c r="B201" s="78"/>
+      <c r="B201" s="54"/>
       <c r="E201" s="45"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="78"/>
-      <c r="H201" s="78"/>
-      <c r="I201" s="55"/>
-      <c r="J201" s="78"/>
-      <c r="K201" s="55"/>
-      <c r="L201" s="55"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="55"/>
-      <c r="O201" s="55"/>
-      <c r="P201" s="55"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="55"/>
-      <c r="S201" s="55"/>
-      <c r="T201" s="55"/>
-      <c r="U201" s="55"/>
-      <c r="V201" s="55"/>
-      <c r="W201" s="55"/>
-      <c r="X201" s="55"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="51"/>
+      <c r="L201" s="51"/>
+      <c r="M201" s="51"/>
+      <c r="N201" s="51"/>
+      <c r="O201" s="51"/>
+      <c r="P201" s="51"/>
+      <c r="Q201" s="51"/>
+      <c r="R201" s="51"/>
+      <c r="S201" s="51"/>
+      <c r="T201" s="51"/>
+      <c r="U201" s="51"/>
+      <c r="V201" s="51"/>
+      <c r="W201" s="51"/>
+      <c r="X201" s="51"/>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="32"/>
-      <c r="B202" s="78"/>
+      <c r="B202" s="54"/>
       <c r="E202" s="45"/>
-      <c r="F202" s="78"/>
-      <c r="G202" s="78"/>
-      <c r="H202" s="78"/>
-      <c r="I202" s="55"/>
-      <c r="J202" s="78"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="55"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="55"/>
-      <c r="O202" s="55"/>
-      <c r="P202" s="55"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="55"/>
-      <c r="S202" s="55"/>
-      <c r="T202" s="55"/>
-      <c r="U202" s="55"/>
-      <c r="V202" s="55"/>
-      <c r="W202" s="55"/>
-      <c r="X202" s="55"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="51"/>
+      <c r="L202" s="51"/>
+      <c r="M202" s="51"/>
+      <c r="N202" s="51"/>
+      <c r="O202" s="51"/>
+      <c r="P202" s="51"/>
+      <c r="Q202" s="51"/>
+      <c r="R202" s="51"/>
+      <c r="S202" s="51"/>
+      <c r="T202" s="51"/>
+      <c r="U202" s="51"/>
+      <c r="V202" s="51"/>
+      <c r="W202" s="51"/>
+      <c r="X202" s="51"/>
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="32"/>
-      <c r="B203" s="78"/>
+      <c r="B203" s="54"/>
       <c r="E203" s="45"/>
-      <c r="F203" s="102"/>
-      <c r="G203" s="102"/>
-      <c r="H203" s="78"/>
-      <c r="I203" s="55"/>
-      <c r="J203" s="102"/>
-      <c r="K203" s="55"/>
-      <c r="L203" s="55"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="55"/>
-      <c r="O203" s="55"/>
-      <c r="P203" s="55"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="55"/>
-      <c r="S203" s="55"/>
-      <c r="T203" s="55"/>
-      <c r="U203" s="55"/>
-      <c r="V203" s="55"/>
-      <c r="W203" s="55"/>
-      <c r="X203" s="55"/>
+      <c r="F203" s="92"/>
+      <c r="G203" s="92"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="51"/>
+      <c r="J203" s="92"/>
+      <c r="K203" s="51"/>
+      <c r="L203" s="51"/>
+      <c r="M203" s="51"/>
+      <c r="N203" s="51"/>
+      <c r="O203" s="51"/>
+      <c r="P203" s="51"/>
+      <c r="Q203" s="51"/>
+      <c r="R203" s="51"/>
+      <c r="S203" s="51"/>
+      <c r="T203" s="51"/>
+      <c r="U203" s="51"/>
+      <c r="V203" s="51"/>
+      <c r="W203" s="51"/>
+      <c r="X203" s="51"/>
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="32"/>
-      <c r="B204" s="79"/>
+      <c r="B204" s="70"/>
       <c r="E204" s="45"/>
-      <c r="F204" s="78"/>
-      <c r="G204" s="78"/>
-      <c r="H204" s="78"/>
-      <c r="I204" s="55"/>
-      <c r="K204" s="55"/>
-      <c r="L204" s="55"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="55"/>
-      <c r="O204" s="55"/>
-      <c r="P204" s="55"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="55"/>
-      <c r="S204" s="55"/>
-      <c r="T204" s="55"/>
-      <c r="U204" s="55"/>
-      <c r="V204" s="55"/>
-      <c r="W204" s="55"/>
-      <c r="X204" s="55"/>
+      <c r="F204" s="54"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="51"/>
+      <c r="K204" s="51"/>
+      <c r="L204" s="51"/>
+      <c r="M204" s="51"/>
+      <c r="N204" s="51"/>
+      <c r="O204" s="51"/>
+      <c r="P204" s="51"/>
+      <c r="Q204" s="51"/>
+      <c r="R204" s="51"/>
+      <c r="S204" s="51"/>
+      <c r="T204" s="51"/>
+      <c r="U204" s="51"/>
+      <c r="V204" s="51"/>
+      <c r="W204" s="51"/>
+      <c r="X204" s="51"/>
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
       <c r="AA204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="32"/>
-      <c r="B205" s="78"/>
+      <c r="B205" s="54"/>
       <c r="E205" s="45"/>
-      <c r="F205" s="99"/>
-      <c r="G205" s="99"/>
-      <c r="H205" s="78"/>
-      <c r="I205" s="55"/>
-      <c r="J205" s="99"/>
-      <c r="K205" s="55"/>
-      <c r="L205" s="55"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="55"/>
-      <c r="O205" s="55"/>
-      <c r="P205" s="55"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="55"/>
-      <c r="S205" s="55"/>
-      <c r="T205" s="55"/>
-      <c r="U205" s="55"/>
-      <c r="V205" s="55"/>
-      <c r="W205" s="55"/>
-      <c r="X205" s="55"/>
+      <c r="F205" s="89"/>
+      <c r="G205" s="89"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="89"/>
+      <c r="K205" s="51"/>
+      <c r="L205" s="51"/>
+      <c r="M205" s="51"/>
+      <c r="N205" s="51"/>
+      <c r="O205" s="51"/>
+      <c r="P205" s="51"/>
+      <c r="Q205" s="51"/>
+      <c r="R205" s="51"/>
+      <c r="S205" s="51"/>
+      <c r="T205" s="51"/>
+      <c r="U205" s="51"/>
+      <c r="V205" s="51"/>
+      <c r="W205" s="51"/>
+      <c r="X205" s="51"/>
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="32"/>
-      <c r="B206" s="78"/>
+      <c r="B206" s="54"/>
       <c r="E206" s="45"/>
-      <c r="F206" s="95"/>
-      <c r="G206" s="95"/>
-      <c r="H206" s="78"/>
-      <c r="I206" s="55"/>
-      <c r="J206" s="103"/>
-      <c r="K206" s="55"/>
-      <c r="L206" s="55"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="55"/>
-      <c r="O206" s="55"/>
-      <c r="P206" s="55"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="55"/>
-      <c r="S206" s="55"/>
-      <c r="T206" s="55"/>
-      <c r="U206" s="55"/>
-      <c r="V206" s="55"/>
-      <c r="W206" s="55"/>
-      <c r="X206" s="55"/>
+      <c r="F206" s="85"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="93"/>
+      <c r="K206" s="51"/>
+      <c r="L206" s="51"/>
+      <c r="M206" s="51"/>
+      <c r="N206" s="51"/>
+      <c r="O206" s="51"/>
+      <c r="P206" s="51"/>
+      <c r="Q206" s="51"/>
+      <c r="R206" s="51"/>
+      <c r="S206" s="51"/>
+      <c r="T206" s="51"/>
+      <c r="U206" s="51"/>
+      <c r="V206" s="51"/>
+      <c r="W206" s="51"/>
+      <c r="X206" s="51"/>
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
       <c r="AA206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="32"/>
-      <c r="B207" s="78"/>
+      <c r="B207" s="54"/>
       <c r="E207" s="45"/>
-      <c r="H207" s="78"/>
-      <c r="I207" s="55"/>
-      <c r="J207" s="103"/>
-      <c r="K207" s="55"/>
-      <c r="L207" s="55"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="55"/>
-      <c r="O207" s="55"/>
-      <c r="P207" s="55"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="55"/>
-      <c r="S207" s="55"/>
-      <c r="T207" s="55"/>
-      <c r="U207" s="55"/>
-      <c r="V207" s="55"/>
-      <c r="W207" s="55"/>
-      <c r="X207" s="55"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="51"/>
+      <c r="J207" s="93"/>
+      <c r="K207" s="51"/>
+      <c r="L207" s="51"/>
+      <c r="M207" s="51"/>
+      <c r="N207" s="51"/>
+      <c r="O207" s="51"/>
+      <c r="P207" s="51"/>
+      <c r="Q207" s="51"/>
+      <c r="R207" s="51"/>
+      <c r="S207" s="51"/>
+      <c r="T207" s="51"/>
+      <c r="U207" s="51"/>
+      <c r="V207" s="51"/>
+      <c r="W207" s="51"/>
+      <c r="X207" s="51"/>
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="32"/>
-      <c r="B208" s="78"/>
+      <c r="B208" s="54"/>
       <c r="E208" s="45"/>
-      <c r="F208" s="99"/>
-      <c r="G208" s="99"/>
-      <c r="H208" s="78"/>
-      <c r="I208" s="55"/>
-      <c r="J208" s="103"/>
-      <c r="K208" s="55"/>
-      <c r="L208" s="55"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="55"/>
-      <c r="O208" s="55"/>
-      <c r="P208" s="55"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="55"/>
-      <c r="S208" s="55"/>
-      <c r="T208" s="55"/>
-      <c r="U208" s="55"/>
-      <c r="V208" s="55"/>
-      <c r="W208" s="55"/>
-      <c r="X208" s="55"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="93"/>
+      <c r="K208" s="51"/>
+      <c r="L208" s="51"/>
+      <c r="M208" s="51"/>
+      <c r="N208" s="51"/>
+      <c r="O208" s="51"/>
+      <c r="P208" s="51"/>
+      <c r="Q208" s="51"/>
+      <c r="R208" s="51"/>
+      <c r="S208" s="51"/>
+      <c r="T208" s="51"/>
+      <c r="U208" s="51"/>
+      <c r="V208" s="51"/>
+      <c r="W208" s="51"/>
+      <c r="X208" s="51"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
       <c r="AA208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="32"/>
-      <c r="B209" s="78"/>
+      <c r="B209" s="54"/>
       <c r="E209" s="45"/>
-      <c r="F209" s="99"/>
-      <c r="G209" s="99"/>
-      <c r="H209" s="78"/>
-      <c r="I209" s="55"/>
-      <c r="J209" s="103"/>
-      <c r="K209" s="55"/>
-      <c r="L209" s="55"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="55"/>
-      <c r="O209" s="55"/>
-      <c r="P209" s="55"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="55"/>
-      <c r="S209" s="55"/>
-      <c r="T209" s="55"/>
-      <c r="U209" s="55"/>
-      <c r="V209" s="55"/>
-      <c r="W209" s="55"/>
-      <c r="X209" s="55"/>
+      <c r="F209" s="89"/>
+      <c r="G209" s="89"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="93"/>
+      <c r="K209" s="51"/>
+      <c r="L209" s="51"/>
+      <c r="M209" s="51"/>
+      <c r="N209" s="51"/>
+      <c r="O209" s="51"/>
+      <c r="P209" s="51"/>
+      <c r="Q209" s="51"/>
+      <c r="R209" s="51"/>
+      <c r="S209" s="51"/>
+      <c r="T209" s="51"/>
+      <c r="U209" s="51"/>
+      <c r="V209" s="51"/>
+      <c r="W209" s="51"/>
+      <c r="X209" s="51"/>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="32"/>
-      <c r="B210" s="104"/>
+      <c r="B210" s="94"/>
       <c r="E210" s="45"/>
-      <c r="F210" s="78"/>
-      <c r="G210" s="78"/>
-      <c r="I210" s="55"/>
-      <c r="J210" s="102"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
-      <c r="O210" s="55"/>
-      <c r="P210" s="55"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="55"/>
-      <c r="S210" s="55"/>
-      <c r="T210" s="55"/>
-      <c r="U210" s="55"/>
-      <c r="V210" s="55"/>
-      <c r="W210" s="55"/>
-      <c r="X210" s="55"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="92"/>
+      <c r="K210" s="51"/>
+      <c r="L210" s="51"/>
+      <c r="M210" s="51"/>
+      <c r="N210" s="51"/>
+      <c r="O210" s="51"/>
+      <c r="P210" s="51"/>
+      <c r="Q210" s="51"/>
+      <c r="R210" s="51"/>
+      <c r="S210" s="51"/>
+      <c r="T210" s="51"/>
+      <c r="U210" s="51"/>
+      <c r="V210" s="51"/>
+      <c r="W210" s="51"/>
+      <c r="X210" s="51"/>
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
       <c r="AA210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="32"/>
-      <c r="B211" s="79"/>
-      <c r="C211" s="55"/>
-      <c r="D211" s="55"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="51"/>
       <c r="E211" s="45"/>
-      <c r="F211" s="78"/>
-      <c r="G211" s="78"/>
-      <c r="H211" s="78"/>
-      <c r="I211" s="55"/>
-      <c r="J211" s="105"/>
-      <c r="K211" s="55"/>
-      <c r="L211" s="55"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="55"/>
-      <c r="O211" s="55"/>
-      <c r="P211" s="55"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="55"/>
-      <c r="S211" s="55"/>
-      <c r="T211" s="55"/>
-      <c r="U211" s="55"/>
-      <c r="V211" s="55"/>
-      <c r="W211" s="55"/>
-      <c r="X211" s="55"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="95"/>
+      <c r="K211" s="51"/>
+      <c r="L211" s="51"/>
+      <c r="M211" s="51"/>
+      <c r="N211" s="51"/>
+      <c r="O211" s="51"/>
+      <c r="P211" s="51"/>
+      <c r="Q211" s="51"/>
+      <c r="R211" s="51"/>
+      <c r="S211" s="51"/>
+      <c r="T211" s="51"/>
+      <c r="U211" s="51"/>
+      <c r="V211" s="51"/>
+      <c r="W211" s="51"/>
+      <c r="X211" s="51"/>
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="32"/>
-      <c r="B212" s="78"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="55"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="51"/>
+      <c r="D212" s="51"/>
       <c r="E212" s="45"/>
-      <c r="F212" s="106"/>
-      <c r="G212" s="106"/>
-      <c r="H212" s="78"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="105"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="55"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="55"/>
-      <c r="O212" s="55"/>
-      <c r="P212" s="55"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="55"/>
-      <c r="S212" s="55"/>
-      <c r="T212" s="55"/>
-      <c r="U212" s="55"/>
-      <c r="V212" s="55"/>
-      <c r="W212" s="55"/>
-      <c r="X212" s="55"/>
+      <c r="F212" s="96"/>
+      <c r="G212" s="96"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="95"/>
+      <c r="K212" s="51"/>
+      <c r="L212" s="51"/>
+      <c r="M212" s="51"/>
+      <c r="N212" s="51"/>
+      <c r="O212" s="51"/>
+      <c r="P212" s="51"/>
+      <c r="Q212" s="51"/>
+      <c r="R212" s="51"/>
+      <c r="S212" s="51"/>
+      <c r="T212" s="51"/>
+      <c r="U212" s="51"/>
+      <c r="V212" s="51"/>
+      <c r="W212" s="51"/>
+      <c r="X212" s="51"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
       <c r="AA212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="32"/>
-      <c r="B213" s="78"/>
-      <c r="C213" s="55"/>
-      <c r="D213" s="55"/>
+      <c r="B213" s="54"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="51"/>
       <c r="E213" s="45"/>
-      <c r="F213" s="106"/>
-      <c r="G213" s="106"/>
-      <c r="H213" s="78"/>
-      <c r="I213" s="55"/>
-      <c r="J213" s="102"/>
-      <c r="K213" s="55"/>
-      <c r="L213" s="55"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="55"/>
-      <c r="O213" s="55"/>
-      <c r="P213" s="55"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="55"/>
-      <c r="S213" s="55"/>
-      <c r="T213" s="55"/>
-      <c r="U213" s="55"/>
-      <c r="V213" s="55"/>
-      <c r="W213" s="55"/>
-      <c r="X213" s="55"/>
+      <c r="F213" s="96"/>
+      <c r="G213" s="96"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="92"/>
+      <c r="K213" s="51"/>
+      <c r="L213" s="51"/>
+      <c r="M213" s="51"/>
+      <c r="N213" s="51"/>
+      <c r="O213" s="51"/>
+      <c r="P213" s="51"/>
+      <c r="Q213" s="51"/>
+      <c r="R213" s="51"/>
+      <c r="S213" s="51"/>
+      <c r="T213" s="51"/>
+      <c r="U213" s="51"/>
+      <c r="V213" s="51"/>
+      <c r="W213" s="51"/>
+      <c r="X213" s="51"/>
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="32"/>
-      <c r="B214" s="78"/>
-      <c r="C214" s="55"/>
-      <c r="D214" s="55"/>
+      <c r="B214" s="54"/>
+      <c r="C214" s="51"/>
+      <c r="D214" s="51"/>
       <c r="E214" s="45"/>
-      <c r="F214" s="106"/>
-      <c r="G214" s="106"/>
-      <c r="H214" s="78"/>
-      <c r="I214" s="55"/>
-      <c r="J214" s="102"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="55"/>
-      <c r="Q214" s="55"/>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
-      <c r="U214" s="55"/>
-      <c r="V214" s="55"/>
-      <c r="W214" s="55"/>
-      <c r="X214" s="55"/>
+      <c r="F214" s="96"/>
+      <c r="G214" s="96"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="92"/>
+      <c r="K214" s="51"/>
+      <c r="L214" s="51"/>
+      <c r="M214" s="51"/>
+      <c r="N214" s="51"/>
+      <c r="O214" s="51"/>
+      <c r="P214" s="51"/>
+      <c r="Q214" s="51"/>
+      <c r="R214" s="51"/>
+      <c r="S214" s="51"/>
+      <c r="T214" s="51"/>
+      <c r="U214" s="51"/>
+      <c r="V214" s="51"/>
+      <c r="W214" s="51"/>
+      <c r="X214" s="51"/>
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="32"/>
-      <c r="B215" s="78"/>
-      <c r="C215" s="55"/>
-      <c r="D215" s="55"/>
+      <c r="B215" s="54"/>
+      <c r="C215" s="51"/>
+      <c r="D215" s="51"/>
       <c r="E215" s="45"/>
-      <c r="F215" s="106"/>
-      <c r="G215" s="106"/>
-      <c r="H215" s="78"/>
-      <c r="I215" s="55"/>
-      <c r="J215" s="102"/>
-      <c r="K215" s="55"/>
-      <c r="L215" s="55"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="55"/>
-      <c r="O215" s="55"/>
-      <c r="P215" s="55"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="55"/>
-      <c r="S215" s="55"/>
-      <c r="T215" s="55"/>
-      <c r="U215" s="55"/>
-      <c r="V215" s="55"/>
-      <c r="W215" s="55"/>
-      <c r="X215" s="55"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="92"/>
+      <c r="K215" s="51"/>
+      <c r="L215" s="51"/>
+      <c r="M215" s="51"/>
+      <c r="N215" s="51"/>
+      <c r="O215" s="51"/>
+      <c r="P215" s="51"/>
+      <c r="Q215" s="51"/>
+      <c r="R215" s="51"/>
+      <c r="S215" s="51"/>
+      <c r="T215" s="51"/>
+      <c r="U215" s="51"/>
+      <c r="V215" s="51"/>
+      <c r="W215" s="51"/>
+      <c r="X215" s="51"/>
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="32"/>
-      <c r="B216" s="78"/>
-      <c r="C216" s="55"/>
-      <c r="D216" s="55"/>
+      <c r="B216" s="54"/>
+      <c r="C216" s="51"/>
+      <c r="D216" s="51"/>
       <c r="E216" s="45"/>
-      <c r="F216" s="106"/>
-      <c r="G216" s="106"/>
-      <c r="H216" s="78"/>
-      <c r="I216" s="55"/>
-      <c r="J216" s="102"/>
-      <c r="K216" s="55"/>
-      <c r="L216" s="55"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
-      <c r="O216" s="55"/>
-      <c r="P216" s="55"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="55"/>
-      <c r="S216" s="55"/>
-      <c r="T216" s="55"/>
-      <c r="U216" s="55"/>
-      <c r="V216" s="55"/>
-      <c r="W216" s="55"/>
-      <c r="X216" s="55"/>
+      <c r="F216" s="96"/>
+      <c r="G216" s="96"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="92"/>
+      <c r="K216" s="51"/>
+      <c r="L216" s="51"/>
+      <c r="M216" s="51"/>
+      <c r="N216" s="51"/>
+      <c r="O216" s="51"/>
+      <c r="P216" s="51"/>
+      <c r="Q216" s="51"/>
+      <c r="R216" s="51"/>
+      <c r="S216" s="51"/>
+      <c r="T216" s="51"/>
+      <c r="U216" s="51"/>
+      <c r="V216" s="51"/>
+      <c r="W216" s="51"/>
+      <c r="X216" s="51"/>
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
       <c r="AA216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="32"/>
-      <c r="B217" s="78"/>
-      <c r="C217" s="55"/>
-      <c r="D217" s="55"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="51"/>
+      <c r="D217" s="51"/>
       <c r="E217" s="45"/>
-      <c r="F217" s="106"/>
-      <c r="G217" s="106"/>
-      <c r="H217" s="78"/>
+      <c r="F217" s="96"/>
+      <c r="G217" s="96"/>
+      <c r="H217" s="54"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="102"/>
+      <c r="J217" s="92"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
@@ -7605,15 +7595,15 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="32"/>
-      <c r="B218" s="78"/>
+      <c r="B218" s="54"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="45"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="106"/>
-      <c r="H218" s="78"/>
+      <c r="F218" s="96"/>
+      <c r="G218" s="96"/>
+      <c r="H218" s="54"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="102"/>
+      <c r="J218" s="92"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
@@ -7634,15 +7624,15 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="32"/>
-      <c r="B219" s="78"/>
+      <c r="B219" s="54"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="45"/>
-      <c r="F219" s="78"/>
-      <c r="G219" s="78"/>
-      <c r="H219" s="78"/>
+      <c r="F219" s="54"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="54"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="102"/>
+      <c r="J219" s="92"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
@@ -7663,15 +7653,15 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="32"/>
-      <c r="B220" s="78"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="45"/>
-      <c r="F220" s="78"/>
-      <c r="G220" s="78"/>
-      <c r="H220" s="78"/>
+      <c r="F220" s="54"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="54"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="102"/>
+      <c r="J220" s="92"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
@@ -7692,15 +7682,15 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="32"/>
-      <c r="B221" s="78"/>
+      <c r="B221" s="54"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="45"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="78"/>
+      <c r="H221" s="54"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="102"/>
+      <c r="J221" s="92"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
@@ -7721,15 +7711,15 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="32"/>
-      <c r="B222" s="78"/>
+      <c r="B222" s="54"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="45"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="78"/>
+      <c r="H222" s="54"/>
       <c r="I222" s="3"/>
-      <c r="J222" s="102"/>
+      <c r="J222" s="92"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
@@ -7750,15 +7740,15 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="32"/>
-      <c r="B223" s="78"/>
+      <c r="B223" s="54"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="45"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="78"/>
+      <c r="H223" s="54"/>
       <c r="I223" s="3"/>
-      <c r="J223" s="102"/>
+      <c r="J223" s="92"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
@@ -7779,13 +7769,13 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="32"/>
-      <c r="B224" s="78"/>
+      <c r="B224" s="54"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="45"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="78"/>
+      <c r="H224" s="54"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -7808,194 +7798,194 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="32"/>
-      <c r="B225" s="78"/>
+      <c r="B225" s="54"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="45"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="78"/>
+      <c r="H225" s="54"/>
       <c r="O225" s="46"/>
       <c r="P225" s="46"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="32"/>
-      <c r="B226" s="78"/>
+      <c r="B226" s="54"/>
       <c r="E226" s="45"/>
-      <c r="H226" s="78"/>
+      <c r="H226" s="54"/>
       <c r="O226" s="46"/>
       <c r="P226" s="46"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="32"/>
-      <c r="B227" s="78"/>
+      <c r="B227" s="54"/>
       <c r="E227" s="45"/>
-      <c r="H227" s="78"/>
+      <c r="H227" s="54"/>
       <c r="O227" s="46"/>
       <c r="P227" s="46"/>
     </row>
     <row r="228" ht="16.5" customHeight="1">
       <c r="A228" s="32"/>
-      <c r="B228" s="78"/>
+      <c r="B228" s="54"/>
       <c r="E228" s="45"/>
-      <c r="H228" s="78"/>
+      <c r="H228" s="54"/>
       <c r="O228" s="46"/>
       <c r="P228" s="46"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="32"/>
-      <c r="B229" s="78"/>
+      <c r="B229" s="54"/>
       <c r="E229" s="45"/>
-      <c r="H229" s="78"/>
+      <c r="H229" s="54"/>
       <c r="O229" s="46"/>
       <c r="P229" s="46"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="32"/>
-      <c r="B230" s="78"/>
+      <c r="B230" s="54"/>
       <c r="E230" s="45"/>
-      <c r="H230" s="78"/>
+      <c r="H230" s="54"/>
       <c r="O230" s="46"/>
       <c r="P230" s="46"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="32"/>
-      <c r="B231" s="78"/>
+      <c r="B231" s="54"/>
       <c r="E231" s="45"/>
-      <c r="H231" s="78"/>
+      <c r="H231" s="54"/>
       <c r="O231" s="46"/>
       <c r="P231" s="46"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="32"/>
-      <c r="B232" s="79"/>
+      <c r="B232" s="70"/>
       <c r="E232" s="45"/>
-      <c r="H232" s="78"/>
+      <c r="H232" s="54"/>
       <c r="O232" s="46"/>
       <c r="P232" s="46"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="32"/>
-      <c r="B233" s="79"/>
+      <c r="B233" s="70"/>
       <c r="E233" s="45"/>
-      <c r="H233" s="78"/>
+      <c r="H233" s="54"/>
       <c r="O233" s="46"/>
       <c r="P233" s="46"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="32"/>
-      <c r="B234" s="79"/>
+      <c r="B234" s="70"/>
       <c r="E234" s="45"/>
-      <c r="H234" s="78"/>
+      <c r="H234" s="54"/>
       <c r="O234" s="46"/>
       <c r="P234" s="46"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="32"/>
-      <c r="B235" s="104"/>
+      <c r="B235" s="94"/>
       <c r="E235" s="45"/>
-      <c r="H235" s="78"/>
+      <c r="H235" s="54"/>
       <c r="O235" s="46"/>
       <c r="P235" s="46"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="32"/>
-      <c r="B236" s="79"/>
+      <c r="B236" s="70"/>
       <c r="E236" s="45"/>
-      <c r="H236" s="78"/>
+      <c r="H236" s="54"/>
       <c r="O236" s="46"/>
       <c r="P236" s="46"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="32"/>
-      <c r="B237" s="104"/>
+      <c r="B237" s="94"/>
       <c r="E237" s="45"/>
-      <c r="H237" s="78"/>
+      <c r="H237" s="54"/>
       <c r="O237" s="46"/>
       <c r="P237" s="46"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="32"/>
       <c r="E238" s="45"/>
-      <c r="H238" s="78"/>
+      <c r="H238" s="54"/>
       <c r="O238" s="46"/>
       <c r="P238" s="46"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="32"/>
       <c r="E239" s="45"/>
-      <c r="H239" s="78"/>
+      <c r="H239" s="54"/>
       <c r="O239" s="46"/>
       <c r="P239" s="46"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="32"/>
       <c r="E240" s="45"/>
-      <c r="H240" s="78"/>
+      <c r="H240" s="54"/>
       <c r="O240" s="46"/>
       <c r="P240" s="46"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="32"/>
       <c r="E241" s="45"/>
-      <c r="H241" s="78"/>
+      <c r="H241" s="54"/>
       <c r="O241" s="46"/>
       <c r="P241" s="46"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="32"/>
       <c r="E242" s="45"/>
-      <c r="H242" s="78"/>
+      <c r="H242" s="54"/>
       <c r="O242" s="46"/>
       <c r="P242" s="46"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="32"/>
       <c r="E243" s="45"/>
-      <c r="H243" s="78"/>
+      <c r="H243" s="54"/>
       <c r="O243" s="46"/>
       <c r="P243" s="46"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="32"/>
-      <c r="B244" s="104"/>
+      <c r="B244" s="94"/>
       <c r="E244" s="45"/>
-      <c r="H244" s="78"/>
+      <c r="H244" s="54"/>
       <c r="O244" s="46"/>
       <c r="P244" s="46"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="32"/>
-      <c r="B245" s="104"/>
+      <c r="B245" s="94"/>
       <c r="E245" s="45"/>
-      <c r="H245" s="78"/>
+      <c r="H245" s="54"/>
       <c r="O245" s="46"/>
       <c r="P245" s="46"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="32"/>
       <c r="E246" s="45"/>
-      <c r="H246" s="78"/>
+      <c r="H246" s="54"/>
       <c r="O246" s="46"/>
       <c r="P246" s="46"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="E247" s="45"/>
-      <c r="H247" s="78"/>
+      <c r="H247" s="54"/>
       <c r="O247" s="46"/>
       <c r="P247" s="46"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="E248" s="45"/>
-      <c r="H248" s="78"/>
+      <c r="H248" s="54"/>
       <c r="O248" s="46"/>
       <c r="P248" s="46"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="32"/>
-      <c r="B249" s="104"/>
+      <c r="B249" s="94"/>
       <c r="E249" s="45"/>
       <c r="O249" s="46"/>
       <c r="P249" s="46"/>
@@ -8003,34 +7993,34 @@
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="E250" s="45"/>
-      <c r="H250" s="78"/>
+      <c r="H250" s="54"/>
       <c r="O250" s="46"/>
       <c r="P250" s="46"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="E251" s="45"/>
-      <c r="H251" s="78"/>
+      <c r="H251" s="54"/>
       <c r="O251" s="46"/>
       <c r="P251" s="46"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="E252" s="45"/>
-      <c r="H252" s="78"/>
+      <c r="H252" s="54"/>
       <c r="O252" s="46"/>
       <c r="P252" s="46"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="E253" s="45"/>
-      <c r="H253" s="78"/>
+      <c r="H253" s="54"/>
       <c r="O253" s="46"/>
       <c r="P253" s="46"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="32"/>
-      <c r="B254" s="104"/>
+      <c r="B254" s="94"/>
       <c r="E254" s="45"/>
       <c r="O254" s="46"/>
       <c r="P254" s="46"/>
@@ -8038,109 +8028,109 @@
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="E255" s="45"/>
-      <c r="H255" s="78"/>
+      <c r="H255" s="54"/>
       <c r="O255" s="46"/>
       <c r="P255" s="46"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="32"/>
       <c r="E256" s="45"/>
-      <c r="G256" s="95"/>
-      <c r="H256" s="78"/>
-      <c r="J256" s="93"/>
+      <c r="G256" s="85"/>
+      <c r="H256" s="54"/>
+      <c r="J256" s="83"/>
       <c r="O256" s="46"/>
       <c r="P256" s="46"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="32"/>
       <c r="E257" s="45"/>
-      <c r="G257" s="93"/>
-      <c r="H257" s="78"/>
+      <c r="G257" s="83"/>
+      <c r="H257" s="54"/>
       <c r="O257" s="46"/>
       <c r="P257" s="46"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="32"/>
       <c r="E258" s="45"/>
-      <c r="G258" s="78"/>
-      <c r="H258" s="78"/>
+      <c r="G258" s="54"/>
+      <c r="H258" s="54"/>
       <c r="O258" s="46"/>
       <c r="P258" s="46"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="32"/>
       <c r="E259" s="45"/>
-      <c r="G259" s="93"/>
-      <c r="H259" s="78"/>
+      <c r="G259" s="83"/>
+      <c r="H259" s="54"/>
       <c r="O259" s="46"/>
       <c r="P259" s="46"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="32"/>
       <c r="E260" s="45"/>
-      <c r="G260" s="93"/>
-      <c r="H260" s="78"/>
-      <c r="J260" s="78"/>
+      <c r="G260" s="83"/>
+      <c r="H260" s="54"/>
+      <c r="J260" s="54"/>
       <c r="O260" s="46"/>
       <c r="P260" s="46"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="32"/>
       <c r="E261" s="45"/>
-      <c r="G261" s="78"/>
-      <c r="H261" s="78"/>
+      <c r="G261" s="54"/>
+      <c r="H261" s="54"/>
       <c r="O261" s="46"/>
       <c r="P261" s="46"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="32"/>
       <c r="E262" s="45"/>
-      <c r="G262" s="78"/>
-      <c r="H262" s="78"/>
-      <c r="J262" s="107"/>
+      <c r="G262" s="54"/>
+      <c r="H262" s="54"/>
+      <c r="J262" s="97"/>
       <c r="O262" s="46"/>
       <c r="P262" s="46"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="32"/>
       <c r="E263" s="45"/>
-      <c r="G263" s="78"/>
-      <c r="H263" s="78"/>
+      <c r="G263" s="54"/>
+      <c r="H263" s="54"/>
       <c r="O263" s="46"/>
       <c r="P263" s="46"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="32"/>
       <c r="E264" s="45"/>
-      <c r="G264" s="78"/>
-      <c r="H264" s="78"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54"/>
       <c r="O264" s="46"/>
       <c r="P264" s="46"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="32"/>
       <c r="E265" s="45"/>
-      <c r="G265" s="58"/>
-      <c r="H265" s="78"/>
-      <c r="J265" s="58"/>
+      <c r="G265" s="56"/>
+      <c r="H265" s="54"/>
+      <c r="J265" s="56"/>
       <c r="O265" s="46"/>
       <c r="P265" s="46"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="32"/>
       <c r="E266" s="45"/>
-      <c r="G266" s="58"/>
-      <c r="H266" s="78"/>
-      <c r="J266" s="58"/>
+      <c r="G266" s="56"/>
+      <c r="H266" s="54"/>
+      <c r="J266" s="56"/>
       <c r="O266" s="46"/>
       <c r="P266" s="46"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="32"/>
       <c r="E267" s="45"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="78"/>
-      <c r="J267" s="58"/>
+      <c r="G267" s="56"/>
+      <c r="H267" s="54"/>
+      <c r="J267" s="56"/>
       <c r="O267" s="46"/>
       <c r="P267" s="46"/>
     </row>
@@ -10030,7 +10020,7 @@
     <row r="738" ht="15.75" customHeight="1">
       <c r="O738" s="46"/>
       <c r="P738" s="46"/>
-      <c r="AE738" s="108"/>
+      <c r="AE738" s="98"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-07-09T11:00:00+00:00</t>
+          <t>2021-08-09T11:00:00+00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>other type of data</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1561,11 +1561,7 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-08-09T11:00:00+00:00</t>
+          <t>2021-08-09T14:00:00+00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2556,6 +2556,2214 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Institution</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>gen:10028</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Academic Medical Center - Amsterdam UMC</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>gen:10029</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Amsterdam Health and Technology Institute - AHTI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>gen:10030</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Delft University of Technology</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>gen:10031</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Eindhoven University of Technology</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gen:10032</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Erasmus Centrum voor Zorgbestuur</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>gen:10033</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Erasmus MC</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gen:10034</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Erasmus University Rotterdam</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>gen:10035</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Expertisecentrum Nederlands</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>gen:10036</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Federal University of Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>gen:10037</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GGD Amsterdam - Public Health Service of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>gen:10038</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GGD Zuid Holland Zuid</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>gen:10039</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GO FAIR Foundation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>gen:10040</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hogeschool Leiden - University of Applied Sciences Leiden</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gen:10041</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hogeschool van Amsterdam - Amsterdam University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gen:10042</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>IKNL - Netherlands Comprehensive Cancer Organisation</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>gen:10043</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Leiden University</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>gen:10044</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Leiden University Medical Center</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>gen:10045</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Maastricht University</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>gen:10046</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Maastricht University Medical Centre</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>gen:10047</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Netherlands Comprehensive Cancer Organisation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>gen:10048</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Netherlands Heart Institute</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gen:10049</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NIVEL - Netherlands Institute for Health Services Research</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gen:10050</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NSCR - Netherlands Institute for the Study of Crime and Law Enforcement </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>gen:10051</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Public Health Service of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>gen:10052</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Public Procurement Research Centre - PPRC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>gen:10053</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Radboud University Nijmegen</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>gen:10054</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gen:10055</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Reade Research BV</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>gen:10056</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>RIVM - National Institute for Public Health and the Environment</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>gen:10057</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sanquin</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>gen:10058</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Saxion University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gen:10059</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SEO Economisch Onderzoek</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>gen:10060</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Spaarne Gasthuis - Spaarne Ziekenhuis</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>gen:10061</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tilburg University</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>gen:10062</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TNO - Netherlands Organisation for Applied Scientific Research</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gen:10063</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>University Medical Center Groningen</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>gen:10064</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>University Medical Center Utrecht</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>gen:10065</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>University of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>gen:10066</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>University of Groningen</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gen:10067</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>University of Humanistic Studies</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>gen:10068</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>University of Twente</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>gen:10069</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Utrecht University</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>gen:10070</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Veiligheids- en Gezondheidsregio Gelderland-Midden</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>gen:10071</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VU Amsterdam</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>gen:10072</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VU University Medical Center</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>gen:10073</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wageningen University &amp; Research</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>gen:10074</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ZonMw - Netherlands Organisation for Health Research and Development</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -2564,7 +2564,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Institution</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-08-09T14:00:00+00:00</t>
+          <t>2021-08-13T22:00:00+00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Other forms of data that are not easily categorized or defined</t>
+          <t>Other forms of resources that are not easily categorized or defined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1849,28 +1849,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>gen:10012</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>other type of biomaterial</t>
+          <t>service</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Other forms of biomaterial that are not easily categorized or defined</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>gen:10007</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1899,12 +1891,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>service</t>
+          <t xml:space="preserve">standard </t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1941,12 +1933,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gen:10014</t>
+          <t>gen:10015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">standard </t>
+          <t>metadata standard</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1954,7 +1946,11 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1983,17 +1979,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>gen:10015</t>
+          <t>gen:10016</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>metadata standard</t>
+          <t>semantic artefact</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -2029,21 +2029,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>gen:10016</t>
+          <t>gen:10017</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>semantic artefact</t>
+          <t>technical standard</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -2079,12 +2075,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>gen:10017</t>
+          <t>gen:10018</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>technical standard</t>
+          <t>conceptual model</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2125,12 +2121,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gen:10018</t>
+          <t>gen:10019</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>conceptual model</t>
+          <t>guideline</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2171,12 +2167,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>gen:10019</t>
+          <t>gen:10020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>guideline</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2217,26 +2213,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>gen:10020</t>
+          <t>gen:10021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>gen:10014</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2263,32 +2267,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gen:10021</t>
+          <t>gen:10022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
+          <t>A type of a characteristic of the ObjectOfInterest.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2317,32 +2321,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gen:10022</t>
+          <t>gen:10023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A type of a characteristic of the ObjectOfInterest.</t>
+          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2371,34 +2375,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gen:10023</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>microorganism</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2425,12 +2421,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gen:10024</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>microorganism</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2471,12 +2467,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>gen:10026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>disease</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2484,11 +2480,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>gen:10008</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2517,12 +2509,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gen:10026</t>
+          <t>gen:10027</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2530,7 +2522,11 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2559,12 +2555,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gen:10027</t>
+          <t>gen:10028</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>Academic Medical Center - Amsterdam UMC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2574,7 +2570,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>gen:10027</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2605,12 +2601,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gen:10028</t>
+          <t>gen:10029</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Academic Medical Center - Amsterdam UMC</t>
+          <t>Amsterdam Health and Technology Institute - AHTI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2651,12 +2647,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gen:10029</t>
+          <t>gen:10030</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amsterdam Health and Technology Institute - AHTI</t>
+          <t>Delft University of Technology</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2697,12 +2693,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>gen:10030</t>
+          <t>gen:10031</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Delft University of Technology</t>
+          <t>Eindhoven University of Technology</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2743,12 +2739,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gen:10031</t>
+          <t>gen:10032</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Eindhoven University of Technology</t>
+          <t>Erasmus Centrum voor Zorgbestuur</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2789,12 +2785,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gen:10032</t>
+          <t>gen:10033</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Erasmus Centrum voor Zorgbestuur</t>
+          <t>Erasmus MC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2835,12 +2831,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>gen:10033</t>
+          <t>gen:10034</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Erasmus MC</t>
+          <t>Erasmus University Rotterdam</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2881,12 +2877,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>gen:10034</t>
+          <t>gen:10035</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Erasmus University Rotterdam</t>
+          <t>Expertisecentrum Nederlands</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2927,12 +2923,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>gen:10035</t>
+          <t>gen:10036</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Expertisecentrum Nederlands</t>
+          <t>Federal University of Rio de Janeiro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2973,12 +2969,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>gen:10036</t>
+          <t>gen:10037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Federal University of Rio de Janeiro</t>
+          <t>GGD Amsterdam - Public Health Service of Amsterdam</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3019,12 +3015,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>gen:10037</t>
+          <t>gen:10038</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GGD Amsterdam - Public Health Service of Amsterdam</t>
+          <t>GGD Zuid Holland Zuid</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -3065,12 +3061,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>gen:10038</t>
+          <t>gen:10039</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GGD Zuid Holland Zuid</t>
+          <t>GO FAIR Foundation</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3111,12 +3107,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>gen:10039</t>
+          <t>gen:10040</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GO FAIR Foundation</t>
+          <t>Hogeschool Leiden - University of Applied Sciences Leiden</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3157,12 +3153,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>gen:10040</t>
+          <t>gen:10041</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hogeschool Leiden - University of Applied Sciences Leiden</t>
+          <t>Hogeschool van Amsterdam - Amsterdam University of Applied Sciences</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3203,12 +3199,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>gen:10041</t>
+          <t>gen:10042</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hogeschool van Amsterdam - Amsterdam University of Applied Sciences</t>
+          <t>IKNL - Netherlands Comprehensive Cancer Organisation</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3249,12 +3245,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>gen:10042</t>
+          <t>gen:10043</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>IKNL - Netherlands Comprehensive Cancer Organisation</t>
+          <t>Leiden University</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3295,12 +3291,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>gen:10043</t>
+          <t>gen:10044</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Leiden University</t>
+          <t>Leiden University Medical Center</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3341,12 +3337,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>gen:10044</t>
+          <t>gen:10045</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Leiden University Medical Center</t>
+          <t>Maastricht University</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3387,12 +3383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>gen:10045</t>
+          <t>gen:10046</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Maastricht University</t>
+          <t>Maastricht University Medical Centre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3433,12 +3429,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gen:10046</t>
+          <t>gen:10047</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maastricht University Medical Centre</t>
+          <t>Netherlands Comprehensive Cancer Organisation</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3479,12 +3475,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gen:10047</t>
+          <t>gen:10048</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Netherlands Comprehensive Cancer Organisation</t>
+          <t>Netherlands Heart Institute</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3525,12 +3521,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>gen:10048</t>
+          <t>gen:10049</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Netherlands Heart Institute</t>
+          <t>NIVEL - Netherlands Institute for Health Services Research</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3571,12 +3567,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>gen:10049</t>
+          <t>gen:10050</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NIVEL - Netherlands Institute for Health Services Research</t>
+          <t xml:space="preserve">NSCR - Netherlands Institute for the Study of Crime and Law Enforcement </t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3617,12 +3613,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>gen:10050</t>
+          <t>gen:10051</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">NSCR - Netherlands Institute for the Study of Crime and Law Enforcement </t>
+          <t>Public Health Service of Amsterdam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3663,12 +3659,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gen:10051</t>
+          <t>gen:10052</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Public Health Service of Amsterdam</t>
+          <t>Public Procurement Research Centre - PPRC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3709,12 +3705,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gen:10052</t>
+          <t>gen:10053</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Public Procurement Research Centre - PPRC</t>
+          <t>Radboud University Nijmegen</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3755,12 +3751,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gen:10053</t>
+          <t>gen:10054</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Radboud University Nijmegen</t>
+          <t>Radboud University Nijmegen Medical Centre</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3801,12 +3797,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gen:10054</t>
+          <t>gen:10055</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Radboud University Nijmegen Medical Centre</t>
+          <t>Reade Research BV</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3847,12 +3843,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>gen:10055</t>
+          <t>gen:10056</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reade Research BV</t>
+          <t>RIVM - National Institute for Public Health and the Environment</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3893,12 +3889,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>gen:10056</t>
+          <t>gen:10057</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RIVM - National Institute for Public Health and the Environment</t>
+          <t>Sanquin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3939,12 +3935,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>gen:10057</t>
+          <t>gen:10058</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sanquin</t>
+          <t>Saxion University of Applied Sciences</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3985,12 +3981,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>gen:10058</t>
+          <t>gen:10059</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Saxion University of Applied Sciences</t>
+          <t>SEO Economisch Onderzoek</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -4031,12 +4027,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>gen:10059</t>
+          <t>gen:10060</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEO Economisch Onderzoek</t>
+          <t>Spaarne Gasthuis - Spaarne Ziekenhuis</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4077,12 +4073,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>gen:10060</t>
+          <t>gen:10061</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Spaarne Gasthuis - Spaarne Ziekenhuis</t>
+          <t>Tilburg University</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4123,12 +4119,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>gen:10061</t>
+          <t>gen:10062</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tilburg University</t>
+          <t>TNO - Netherlands Organisation for Applied Scientific Research</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -4169,12 +4165,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gen:10062</t>
+          <t>gen:10063</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TNO - Netherlands Organisation for Applied Scientific Research</t>
+          <t>University Medical Center Groningen</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4215,12 +4211,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>gen:10063</t>
+          <t>gen:10064</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>University Medical Center Groningen</t>
+          <t>University Medical Center Utrecht</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4261,12 +4257,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>gen:10064</t>
+          <t>gen:10065</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>University Medical Center Utrecht</t>
+          <t>University of Amsterdam</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4307,12 +4303,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>gen:10065</t>
+          <t>gen:10066</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>University of Amsterdam</t>
+          <t>University of Groningen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4353,12 +4349,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>gen:10066</t>
+          <t>gen:10067</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>University of Groningen</t>
+          <t>University of Humanistic Studies</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4399,12 +4395,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>gen:10067</t>
+          <t>gen:10068</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>University of Humanistic Studies</t>
+          <t>University of Twente</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4445,12 +4441,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gen:10068</t>
+          <t>gen:10069</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>University of Twente</t>
+          <t>Utrecht University</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4491,12 +4487,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gen:10069</t>
+          <t>gen:10070</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Utrecht University</t>
+          <t>Veiligheids- en Gezondheidsregio Gelderland-Midden</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4537,12 +4533,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gen:10070</t>
+          <t>gen:10071</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Veiligheids- en Gezondheidsregio Gelderland-Midden</t>
+          <t>VU Amsterdam</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4583,12 +4579,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>gen:10071</t>
+          <t>gen:10072</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VU Amsterdam</t>
+          <t>VU University Medical Center</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4629,12 +4625,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gen:10072</t>
+          <t>gen:10073</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VU University Medical Center</t>
+          <t>Wageningen University &amp; Research</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4675,12 +4671,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gen:10073</t>
+          <t>gen:10074</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wageningen University &amp; Research</t>
+          <t>ZonMw - Netherlands Organisation for Health Research and Development</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4718,52 +4714,6 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>gen:10074</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ZonMw - Netherlands Organisation for Health Research and Development</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>gen:10027</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4714,6 +4714,752 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>contributor type</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gen:10076</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>data collector</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>gen:10077</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>data manager</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>gen:10078</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>data curator</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>gen:10079</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sponsor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>gen:10080</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gen:10081</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>project leader</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>gen:10082</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>project manager</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>gen:10083</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>project member</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gen:10084</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>reseacher</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gen:10085</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>editor</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>gen:10086</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rights holder</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>gen:10087</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>gen:10088</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>work package leader</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>gen:10089</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>contact person</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5460,6 +5460,226 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gen:10090</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bacterium</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gen:10091</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>parasite</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>gen:10092</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gen:10093</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>fungus</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5680,6 +5680,186 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>gen:10094</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>gen:10095</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>human disease</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>gen:10096</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>animal disease</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>plant disease</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF115"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5860,6 +5860,52 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr"/>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>gen:10098</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF116"/>
+  <dimension ref="A1:AF120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,7 +1561,11 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -5696,7 +5700,11 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5906,6 +5914,178 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr"/>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>generic answer options</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>gen:10100</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gen:10101</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4690,7 +4690,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>gen:10027</t>
+          <t>gen:10027, gen:10102</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -6049,8 +6049,16 @@
       <c r="AF119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>gen:10102</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>funder institution</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -6066,7 +6066,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>gen:10099</t>
+          <t>gen:10027</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF120"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6094,6 +6094,52 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr"/>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>gen:10103</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AF122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5530,16 +5530,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>parasite</t>
+          <t>prion</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
@@ -6140,6 +6136,52 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>gen:10104</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>protozoa</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF122"/>
+  <dimension ref="A1:AF130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,6 +6182,362 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>media type</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>gen:10106</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>text/Portable Document Format for archiving (PDF)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>gen:10107</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>text/Portable Document Format (PDF)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>PDF other than PDF/A (.pdf)</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>gen:10108</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>text/Open Document Format (ODT)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Text format with .odt ending</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>gen:10109</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>text/Microsoft Word</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Text format with .doc ending</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>gen:10110</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>text/Office Open XML</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Text format with .docx ending</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>gen:10111</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>text/Rich Text File</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Text format with .rtf ending</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>gen:10112</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>plain/txt</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -6240,7 +6240,11 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -6286,7 +6290,11 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -6332,7 +6340,11 @@
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -6378,7 +6390,11 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -6424,7 +6440,11 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -6470,7 +6490,11 @@
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -6512,7 +6536,11 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF130"/>
+  <dimension ref="A1:AF142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6194,7 +6194,11 @@
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -6232,14 +6236,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>text/Portable Document Format for archiving (PDF)</t>
+          <t xml:space="preserve">PDF/A - Portable Document Format for archiving </t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>A DANS preferred text format with '.pdf' ending.</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/pdf-a/</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6278,18 +6290,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>text/Portable Document Format (PDF)</t>
+          <t xml:space="preserve">PDF - Portable Document Format </t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PDF other than PDF/A (.pdf)</t>
+          <t>A DANS non-preferred text format, which includes all PDF other than PDF/A wiht '.pdf' ending.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/pdf-pdf/</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6328,18 +6344,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>text/Open Document Format (ODT)</t>
+          <t xml:space="preserve">ODT - Open Document </t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Text format with .odt ending</t>
+          <t>A DANS preferred text format with '.odt' ending.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/opendocument-text/</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6378,18 +6398,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>text/Microsoft Word</t>
+          <t>DOC - Microsoft Word</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Text format with .doc ending</t>
+          <t>A DANS non-preferred text format with '.doc' ending.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/microsoft-word-and-office-open-xml/</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6428,18 +6452,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>text/Office Open XML</t>
+          <t>DOCX - Office Open XML</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Text format with .docx ending</t>
+          <t>A DANS non-preferred text format with '.docx' ending.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/microsoft-word-and-office-open-xml/</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6478,18 +6506,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>text/Rich Text File</t>
+          <t>RTF - Rich Text File</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Text format with .rtf ending</t>
+          <t>A DANS non-preferred text format with '.rtf' ending.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/text-documents/rich-text-file-rtf/</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6528,14 +6560,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>plain/txt</t>
+          <t>TXT - Unicode text</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A DANS preferred plain text format with '.txt' ending.</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/plain-text/unicode/</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>gen:10105</t>
@@ -6566,6 +6606,654 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr"/>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>gen:10113</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TXT - Non-Unicode text </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred plain text format with '.txt' ending.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/plain-text/unicode/</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>gen:10114</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>XML - eXtensivle Markup Language</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.xml' ending.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/xml/</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>gen:10115</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>HTML - Hypertext Markup Language</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.xml' ending.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/html/</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>gen:10116</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CSS - Cascading Style Sheets</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.css' ending.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/css/</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>gen:10117</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>XSLT - Extensible Stylesheet Language Transformations</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.xslt' ending.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/xslt/</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>gen:10118</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>JS - JavaScript</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.js' ending.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/script/</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>gen:10119</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ES - ECMAScript</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>A DANS preferred markup language format with '.es' ending.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/script/</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>gen:10120</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SGML - Standard Generalized Markup Language</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred markup language format with '.es' ending.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/sgml/</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>gen:10121</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MD - Markdown</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred markup language format with '.md' ending.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/markup-language/markdown/</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>gen:10122</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MATLAB</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A DANS preferred programming language format. </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/programming-languages/matlab/</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>gen:10123</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NetCDF - Network Common Data Form</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A DANS preferred file format. It is an interface to a library of data access functions for storing and retrieving data in the form of arrays.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/programming-languages/netcdf/</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>gen:10124</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TF - Text-Fabric</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A DANS preferred file format. Files with this format store a column of feature values that correspond to nodes and edges in a graph, which together represent annotated text. </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/programming-languages/text-fabric/</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF142"/>
+  <dimension ref="A1:AF179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7254,6 +7254,1980 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr"/>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>gen:10125</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ODS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A DANS preferred spreadsheet format with '.ods' ending. It is an ISO standardized format for office documents. </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/spreadsheets/ods/</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>gen:10126</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CSV - Comma Separated Values</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A DANS preferred spreadsheet format with '.csv' ending.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/spreadsheets/csv/</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>gen:10127</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>XLS - Microsoft Excel</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred spreadsheet format with '.xls' ending.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/spreadsheets/microsoft-excel/</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>gen:10128</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>XLSX - Office Open XML Workbook</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred spreadsheet format with '.xlsx' ending.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/spreadsheets/office-open-xml-workbook/</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>gen:10129</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SQL - Structured Query Language</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A DANS preferred database format with '.sql' ending.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/databases/sql/</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>gen:10130</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SIARD - Software Independent Archiving of Relational Databases</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>A DANS preferred database format.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/databases/siard/</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>gen:10131</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Microsoft Access</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred database format with '.mdb' or 'accdb' ending.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/databases/microsoft-access/</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>gen:10132</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DBF - dBase</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred database format with '.dbf' ending.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/databases/dbase/</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>gen:10133</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>HDF5 - Hierarchical Data Format</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>A DANS non-preferred database format with '.hdf5', '.he5' or '.h5' ending.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>gen:10134</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPSS </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>A DANS preferred statistical data format with '.dat/.sps' ending.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/statistical-data/data-and-setup/</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>gen:10135</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STATA </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>A DANS preferred statistical data format with '.dat/.Do' ending.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/statistical-data/data-and-setup/</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>gen:10136</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>A DANS preferred statistical data format.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/statistical-data/r/</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>gen:10137</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JPEG - Joint Photographic Expert Group</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.jpg/.jpeg' ending.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-raster/jpeg/</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>gen:10138</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>JPEG 2000</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.jp2' ending.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-raster/jpeg-2000/</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>gen:10139</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TIFF - Tagged Image File Format</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.tiff' ending.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-raster/tiff/</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>gen:10140</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>PNG - Portable Network Graphics</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.png' ending.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-raster/png/</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>gen:10141</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>DICOM - Digital Imaging and Communications in Medicine</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.dcm' ending.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-raster/dicom/</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>gen:10142</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SVG - Scalable Vector Graphics</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster images format with '.svg' ending.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-vector/svg/</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>gen:10143</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BWF - Broadcast Wave Format</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>A DANS preferred audio format with '.bwf' ending.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/audio/bwf/</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>gen:10144</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MXF - Material Exchange Format </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>A DANS preferred audio and video format with '.mxf' ending.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/audio/mxf/</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>gen:10145</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MKA - Matroska</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>A DANS preferred audio and video format with '.mka' ending.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/audio/matroska/</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>gen:10146</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>FLAC - Free Lossless Audio Codec</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>A DANS preferred audio format with '.flac' ending.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/audio/flac/</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>gen:10147</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>OPUS</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A DANS preferred audio format.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/audio/opus/</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>gen:10148</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>DXF - AutoCAD DXF version R12 (ASCII)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A DANS preferred computer aided design format with '.dxf' ending.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/computer-aided-design-cad/autocad-dxf-versie-r12-ascii/</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>gen:10149</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>GML - Geography Markup Language</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A DANS preferred GIS format with '.gml' ending.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/geographical-information-systems-gis/gml/</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>gen:10150</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MIF/MID - MapInfo Interchange Format</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>A DANS preferred GIS format with '.mif' ending.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/geographical-information-systems-gis/mif-mid/</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>gen:10151</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>GeoJSON</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>A DANS preferred GIS format with '.json' ending.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>gen:10152</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>GeoTIFF</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>A DANS preferred georeferenced images format with '.tif' or '.tiff' ending.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/images-georeference/geotiff/</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>gen:10153</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ASCII GRID</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A DANS preferred raster GIS format with '.asc' or '.txt' ending.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/raster-gis/ascii-grid/</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>gen:10154</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>WaveFront Object</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>A DANS preferred 3D geometry format with '.obj' ending.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/3d/wavefront-object/</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>gen:10155</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Polygon file format</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>A DANS preferred 3D geometry format with '.ply' ending.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/3d/polygon-file-format/</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>gen:10156</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>RDF - Resource Description Framework</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>A DANS preferred linked data format with '.rdf' ending.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>gen:10157</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>TriG</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A DANS preferred linked data format with '.trig' ending.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>gen:10158</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Turtle</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A DANS preferred linked data format with '.ttl' ending.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>gen:10159</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>NTriples</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>A DANS preferred linked data format with '.nt' ending.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>gen:10160</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>JSON-LD</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>A DANS preferred linked data format based on JSON.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>gen:10161</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>REFI-QDA - Qualitative Data Analysis</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>A DANS preferred qualitative data analysis standard for exchange of qualtitative data between QDA programs.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://dans.knaw.nl/en/file-formats/computer-assisted-qualitative-data-analysis-caqdas/refi-qda-qualitative-data-analysis/</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>gen:10105</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
